--- a/database/industries/lastic/parta/product/monthly.xlsx
+++ b/database/industries/lastic/parta/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\parta\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D73FB4-E0B3-4B7F-B2E5-6D39FC8ABEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F195B74-44A6-4D25-9AB6-1CD17D899B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>سایر</t>
@@ -1531,35 +1531,35 @@
       <c r="AR11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>57</v>
+      <c r="AS11" s="11">
+        <v>1</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AU11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>57</v>
+        <v>80</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>-74</v>
       </c>
       <c r="AW11" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AZ11" s="11">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="BA11" s="11">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="BB11" s="11">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1657,68 +1657,68 @@
       <c r="AG12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI12" s="13" t="s">
-        <v>57</v>
+      <c r="AH12" s="13">
+        <v>986</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>1544</v>
       </c>
       <c r="AJ12" s="13">
-        <v>986</v>
+        <v>2068</v>
       </c>
       <c r="AK12" s="13">
-        <v>1544</v>
+        <v>1690</v>
       </c>
       <c r="AL12" s="13">
-        <v>2068</v>
+        <v>1202</v>
       </c>
       <c r="AM12" s="13">
-        <v>1690</v>
+        <v>1405</v>
       </c>
       <c r="AN12" s="13">
-        <v>1202</v>
+        <v>1429</v>
       </c>
       <c r="AO12" s="13">
-        <v>1405</v>
+        <v>1481</v>
       </c>
       <c r="AP12" s="13">
-        <v>1429</v>
+        <v>1623</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1481</v>
+        <v>1628</v>
       </c>
       <c r="AR12" s="13">
         <v>1623</v>
       </c>
       <c r="AS12" s="13">
-        <v>1628</v>
+        <v>1338</v>
       </c>
       <c r="AT12" s="13">
-        <v>1623</v>
+        <v>1193</v>
       </c>
       <c r="AU12" s="13">
-        <v>1338</v>
+        <v>1760</v>
       </c>
       <c r="AV12" s="13">
-        <v>1193</v>
+        <v>1743</v>
       </c>
       <c r="AW12" s="13">
-        <v>1760</v>
+        <v>1725</v>
       </c>
       <c r="AX12" s="13">
-        <v>1743</v>
+        <v>1474</v>
       </c>
       <c r="AY12" s="13">
-        <v>1725</v>
+        <v>1606</v>
       </c>
       <c r="AZ12" s="13">
-        <v>1474</v>
+        <v>1614</v>
       </c>
       <c r="BA12" s="13">
-        <v>1606</v>
+        <v>1453</v>
       </c>
       <c r="BB12" s="13">
-        <v>1614</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1816,68 +1816,68 @@
       <c r="AG13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI13" s="11" t="s">
-        <v>57</v>
+      <c r="AH13" s="11">
+        <v>160</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>357</v>
       </c>
       <c r="AJ13" s="11">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="AK13" s="11">
+        <v>262</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>235</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>299</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>319</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>309</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>307</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>306</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>300</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>261</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>246</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>363</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>367</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>349</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>320</v>
+      </c>
+      <c r="AY13" s="11">
         <v>357</v>
       </c>
-      <c r="AL13" s="11">
-        <v>276</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>262</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>235</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>299</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>319</v>
-      </c>
-      <c r="AQ13" s="11">
+      <c r="AZ13" s="11">
+        <v>344</v>
+      </c>
+      <c r="BA13" s="11">
         <v>309</v>
       </c>
-      <c r="AR13" s="11">
-        <v>307</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>306</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>300</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>261</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>246</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>363</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>367</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>349</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>320</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>357</v>
-      </c>
       <c r="BB13" s="11">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1975,68 +1975,68 @@
       <c r="AG14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI14" s="13" t="s">
-        <v>57</v>
+      <c r="AH14" s="13">
+        <v>177</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>148</v>
       </c>
       <c r="AJ14" s="13">
-        <v>177</v>
+        <v>586</v>
       </c>
       <c r="AK14" s="13">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="AL14" s="13">
-        <v>586</v>
+        <v>164</v>
       </c>
       <c r="AM14" s="13">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="AN14" s="13">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="AO14" s="13">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="AP14" s="13">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="AQ14" s="13">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="AR14" s="13">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AS14" s="13">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="AT14" s="13">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="AU14" s="13">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="AV14" s="13">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="AW14" s="13">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AX14" s="13">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="AY14" s="13">
         <v>335</v>
       </c>
       <c r="AZ14" s="13">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="BA14" s="13">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="BB14" s="13">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2134,68 +2134,68 @@
       <c r="AG15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>57</v>
+      <c r="AH15" s="11">
+        <v>62</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>138</v>
       </c>
       <c r="AJ15" s="11">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="AK15" s="11">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="AL15" s="11">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="AM15" s="11">
+        <v>184</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>191</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>182</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>180</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>151</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>140</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>122</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>198</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>198</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>188</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>182</v>
+      </c>
+      <c r="AY15" s="11">
         <v>187</v>
       </c>
-      <c r="AN15" s="11">
-        <v>125</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>184</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>191</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>182</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>177</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>180</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>151</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>140</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>122</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>198</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>198</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>188</v>
-      </c>
       <c r="AZ15" s="11">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="BA15" s="11">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="BB15" s="11">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2392,8 +2392,8 @@
       <c r="AU17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV17" s="11" t="s">
-        <v>57</v>
+      <c r="AV17" s="11">
+        <v>0</v>
       </c>
       <c r="AW17" s="11" t="s">
         <v>57</v>
@@ -2401,8 +2401,8 @@
       <c r="AX17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY17" s="11" t="s">
-        <v>57</v>
+      <c r="AY17" s="11">
+        <v>0</v>
       </c>
       <c r="AZ17" s="11" t="s">
         <v>57</v>
@@ -2507,11 +2507,11 @@
       <c r="AG18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AH18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI18" s="15" t="s">
-        <v>57</v>
+      <c r="AH18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="15">
+        <v>0</v>
       </c>
       <c r="AJ18" s="15">
         <v>0</v>
@@ -2665,67 +2665,67 @@
         <v>0</v>
       </c>
       <c r="AH19" s="17">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="AI19" s="17">
-        <v>0</v>
+        <v>2187</v>
       </c>
       <c r="AJ19" s="17">
-        <v>1385</v>
+        <v>3135</v>
       </c>
       <c r="AK19" s="17">
-        <v>2187</v>
+        <v>2493</v>
       </c>
       <c r="AL19" s="17">
-        <v>3135</v>
+        <v>1726</v>
       </c>
       <c r="AM19" s="17">
-        <v>2493</v>
+        <v>2201</v>
       </c>
       <c r="AN19" s="17">
-        <v>1726</v>
+        <v>2254</v>
       </c>
       <c r="AO19" s="17">
-        <v>2201</v>
+        <v>2237</v>
       </c>
       <c r="AP19" s="17">
-        <v>2254</v>
+        <v>2396</v>
       </c>
       <c r="AQ19" s="17">
-        <v>2237</v>
+        <v>2412</v>
       </c>
       <c r="AR19" s="17">
-        <v>2396</v>
+        <v>2360</v>
       </c>
       <c r="AS19" s="17">
-        <v>2412</v>
+        <v>1998</v>
       </c>
       <c r="AT19" s="17">
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="AU19" s="17">
-        <v>1998</v>
+        <v>2727</v>
       </c>
       <c r="AV19" s="17">
-        <v>1810</v>
+        <v>2561</v>
       </c>
       <c r="AW19" s="17">
-        <v>2727</v>
+        <v>2597</v>
       </c>
       <c r="AX19" s="17">
-        <v>2663</v>
+        <v>2288</v>
       </c>
       <c r="AY19" s="17">
-        <v>2597</v>
+        <v>2518</v>
       </c>
       <c r="AZ19" s="17">
-        <v>2288</v>
+        <v>2594</v>
       </c>
       <c r="BA19" s="17">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BB19" s="17">
-        <v>2594</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3290,8 +3290,8 @@
       <c r="AR26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS26" s="11" t="s">
-        <v>57</v>
+      <c r="AS26" s="11">
+        <v>1</v>
       </c>
       <c r="AT26" s="11" t="s">
         <v>57</v>
@@ -3299,26 +3299,26 @@
       <c r="AU26" s="11">
         <v>1</v>
       </c>
-      <c r="AV26" s="11" t="s">
-        <v>57</v>
+      <c r="AV26" s="11">
+        <v>3</v>
       </c>
       <c r="AW26" s="11">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="11">
         <v>1</v>
       </c>
-      <c r="AX26" s="11">
-        <v>3</v>
-      </c>
       <c r="AY26" s="11">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="AZ26" s="11">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="BA26" s="11">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="BB26" s="11">
-        <v>144</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3416,68 +3416,68 @@
       <c r="AG27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI27" s="13" t="s">
-        <v>57</v>
+      <c r="AH27" s="13">
+        <v>1275</v>
+      </c>
+      <c r="AI27" s="13">
+        <v>1255</v>
       </c>
       <c r="AJ27" s="13">
+        <v>1162</v>
+      </c>
+      <c r="AK27" s="13">
+        <v>1133</v>
+      </c>
+      <c r="AL27" s="13">
+        <v>1613</v>
+      </c>
+      <c r="AM27" s="13">
+        <v>1435</v>
+      </c>
+      <c r="AN27" s="13">
         <v>1275</v>
       </c>
-      <c r="AK27" s="13">
-        <v>1255</v>
-      </c>
-      <c r="AL27" s="13">
-        <v>1162</v>
-      </c>
-      <c r="AM27" s="13">
-        <v>1133</v>
-      </c>
-      <c r="AN27" s="13">
-        <v>1613</v>
-      </c>
       <c r="AO27" s="13">
-        <v>1435</v>
+        <v>1528</v>
       </c>
       <c r="AP27" s="13">
-        <v>1275</v>
+        <v>1908</v>
       </c>
       <c r="AQ27" s="13">
-        <v>1528</v>
+        <v>1678</v>
       </c>
       <c r="AR27" s="13">
-        <v>1908</v>
+        <v>1855</v>
       </c>
       <c r="AS27" s="13">
+        <v>1726</v>
+      </c>
+      <c r="AT27" s="13">
+        <v>1184</v>
+      </c>
+      <c r="AU27" s="13">
+        <v>2149</v>
+      </c>
+      <c r="AV27" s="13">
+        <v>1954</v>
+      </c>
+      <c r="AW27" s="13">
+        <v>1868</v>
+      </c>
+      <c r="AX27" s="13">
+        <v>1272</v>
+      </c>
+      <c r="AY27" s="13">
+        <v>1568</v>
+      </c>
+      <c r="AZ27" s="13">
+        <v>1865</v>
+      </c>
+      <c r="BA27" s="13">
+        <v>1665</v>
+      </c>
+      <c r="BB27" s="13">
         <v>1678</v>
-      </c>
-      <c r="AT27" s="13">
-        <v>1855</v>
-      </c>
-      <c r="AU27" s="13">
-        <v>1726</v>
-      </c>
-      <c r="AV27" s="13">
-        <v>1184</v>
-      </c>
-      <c r="AW27" s="13">
-        <v>2149</v>
-      </c>
-      <c r="AX27" s="13">
-        <v>1954</v>
-      </c>
-      <c r="AY27" s="13">
-        <v>1868</v>
-      </c>
-      <c r="AZ27" s="13">
-        <v>1272</v>
-      </c>
-      <c r="BA27" s="13">
-        <v>1568</v>
-      </c>
-      <c r="BB27" s="13">
-        <v>1865</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3575,68 +3575,68 @@
       <c r="AG28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI28" s="11" t="s">
-        <v>57</v>
+      <c r="AH28" s="11">
+        <v>220</v>
+      </c>
+      <c r="AI28" s="11">
+        <v>297</v>
       </c>
       <c r="AJ28" s="11">
-        <v>220</v>
+        <v>413</v>
       </c>
       <c r="AK28" s="11">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AL28" s="11">
-        <v>413</v>
+        <v>265</v>
       </c>
       <c r="AM28" s="11">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="AN28" s="11">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="AO28" s="11">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="AP28" s="11">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AQ28" s="11">
-        <v>307</v>
+        <v>460</v>
       </c>
       <c r="AR28" s="11">
-        <v>245</v>
+        <v>352</v>
       </c>
       <c r="AS28" s="11">
-        <v>460</v>
+        <v>274</v>
       </c>
       <c r="AT28" s="11">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="AU28" s="11">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="AV28" s="11">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="AW28" s="11">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="AX28" s="11">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="AY28" s="11">
-        <v>235</v>
+        <v>494</v>
       </c>
       <c r="AZ28" s="11">
-        <v>390</v>
+        <v>273</v>
       </c>
       <c r="BA28" s="11">
-        <v>494</v>
+        <v>321</v>
       </c>
       <c r="BB28" s="11">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3734,68 +3734,68 @@
       <c r="AG29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI29" s="13" t="s">
-        <v>57</v>
+      <c r="AH29" s="13">
+        <v>130</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>195</v>
       </c>
       <c r="AJ29" s="13">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="AK29" s="13">
-        <v>195</v>
+        <v>344</v>
       </c>
       <c r="AL29" s="13">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="AM29" s="13">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="AN29" s="13">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="AO29" s="13">
-        <v>550</v>
+        <v>416</v>
       </c>
       <c r="AP29" s="13">
-        <v>191</v>
+        <v>393</v>
       </c>
       <c r="AQ29" s="13">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AR29" s="13">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="AS29" s="13">
-        <v>495</v>
+        <v>237</v>
       </c>
       <c r="AT29" s="13">
-        <v>364</v>
+        <v>238</v>
       </c>
       <c r="AU29" s="13">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="AV29" s="13">
-        <v>238</v>
+        <v>534</v>
       </c>
       <c r="AW29" s="13">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="AX29" s="13">
-        <v>534</v>
+        <v>335</v>
       </c>
       <c r="AY29" s="13">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="AZ29" s="13">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="BA29" s="13">
         <v>339</v>
       </c>
       <c r="BB29" s="13">
-        <v>287</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3893,68 +3893,68 @@
       <c r="AG30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI30" s="11" t="s">
-        <v>57</v>
+      <c r="AH30" s="11">
+        <v>67</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>133</v>
       </c>
       <c r="AJ30" s="11">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AK30" s="11">
+        <v>105</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>141</v>
+      </c>
+      <c r="AM30" s="11">
+        <v>215</v>
+      </c>
+      <c r="AN30" s="11">
         <v>133</v>
       </c>
-      <c r="AL30" s="11">
-        <v>110</v>
-      </c>
-      <c r="AM30" s="11">
-        <v>105</v>
-      </c>
-      <c r="AN30" s="11">
-        <v>141</v>
-      </c>
       <c r="AO30" s="11">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="AP30" s="11">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="AQ30" s="11">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="AR30" s="11">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="AS30" s="11">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="AT30" s="11">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="AU30" s="11">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="AV30" s="11">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AW30" s="11">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="AX30" s="11">
+        <v>165</v>
+      </c>
+      <c r="AY30" s="11">
         <v>193</v>
       </c>
-      <c r="AY30" s="11">
-        <v>205</v>
-      </c>
       <c r="AZ30" s="11">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="BA30" s="11">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="BB30" s="11">
-        <v>150</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4151,8 +4151,8 @@
       <c r="AU32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV32" s="11" t="s">
-        <v>57</v>
+      <c r="AV32" s="11">
+        <v>0</v>
       </c>
       <c r="AW32" s="11" t="s">
         <v>57</v>
@@ -4160,8 +4160,8 @@
       <c r="AX32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY32" s="11" t="s">
-        <v>57</v>
+      <c r="AY32" s="11">
+        <v>0</v>
       </c>
       <c r="AZ32" s="11" t="s">
         <v>57</v>
@@ -4266,11 +4266,11 @@
       <c r="AG33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AH33" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI33" s="15" t="s">
-        <v>57</v>
+      <c r="AH33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="15">
+        <v>0</v>
       </c>
       <c r="AJ33" s="15">
         <v>0</v>
@@ -4488,24 +4488,24 @@
       <c r="AI35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ35" s="11" t="s">
-        <v>57</v>
+      <c r="AJ35" s="11">
+        <v>-17</v>
       </c>
       <c r="AK35" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AL35" s="11">
-        <v>-17</v>
-      </c>
-      <c r="AM35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN35" s="11">
         <v>-49</v>
       </c>
-      <c r="AO35" s="11">
+      <c r="AM35" s="11">
         <v>-39</v>
       </c>
+      <c r="AN35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO35" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AP35" s="11" t="s">
         <v>57</v>
       </c>
@@ -4524,26 +4524,26 @@
       <c r="AU35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW35" s="11" t="s">
-        <v>57</v>
+      <c r="AV35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="11">
+        <v>-16</v>
       </c>
       <c r="AX35" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AY35" s="11">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="11" t="s">
         <v>57</v>
       </c>
       <c r="BA35" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="11" t="s">
-        <v>57</v>
+        <v>-10</v>
+      </c>
+      <c r="BB35" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4650,59 +4650,59 @@
       <c r="AJ36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK36" s="13" t="s">
-        <v>57</v>
+      <c r="AK36" s="13">
+        <v>-1</v>
       </c>
       <c r="AL36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM36" s="13">
+      <c r="AM36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="13">
         <v>-1</v>
       </c>
-      <c r="AN36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB36" s="13">
-        <v>-1</v>
+      <c r="BA36" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4800,26 +4800,26 @@
       <c r="AG37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI37" s="11" t="s">
-        <v>57</v>
+      <c r="AH37" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>-5</v>
       </c>
       <c r="AJ37" s="11">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="11">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="AL37" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AM37" s="11">
-        <v>-10</v>
-      </c>
-      <c r="AN37" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO37" s="11" t="s">
         <v>57</v>
@@ -4842,17 +4842,17 @@
       <c r="AU37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV37" s="11" t="s">
-        <v>57</v>
+      <c r="AV37" s="11">
+        <v>0</v>
       </c>
       <c r="AW37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX37" s="11">
-        <v>-4</v>
-      </c>
-      <c r="AY37" s="11" t="s">
-        <v>57</v>
+      <c r="AX37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY37" s="11">
+        <v>0</v>
       </c>
       <c r="AZ37" s="11" t="s">
         <v>57</v>
@@ -4971,53 +4971,53 @@
       <c r="AK38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL38" s="13" t="s">
-        <v>57</v>
+      <c r="AL38" s="13">
+        <v>-4</v>
       </c>
       <c r="AM38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN38" s="13">
+      <c r="AN38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP38" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AQ38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS38" s="13">
         <v>-4</v>
       </c>
-      <c r="AO38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR38" s="13">
+      <c r="AT38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AX38" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AY38" s="13">
         <v>-2</v>
       </c>
-      <c r="AS38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU38" s="13">
-        <v>-4</v>
-      </c>
-      <c r="AV38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY38" s="13">
-        <v>-4</v>
-      </c>
-      <c r="AZ38" s="13">
-        <v>-1</v>
-      </c>
-      <c r="BA38" s="13">
-        <v>-2</v>
+      <c r="AZ38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB38" s="13" t="s">
         <v>57</v>
@@ -5116,68 +5116,68 @@
       <c r="AG39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AH39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI39" s="17" t="s">
-        <v>57</v>
+      <c r="AH39" s="17">
+        <v>-19</v>
+      </c>
+      <c r="AI39" s="17">
+        <v>-5</v>
       </c>
       <c r="AJ39" s="17">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="AK39" s="17">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="AL39" s="17">
-        <v>-18</v>
+        <v>-53</v>
       </c>
       <c r="AM39" s="17">
-        <v>-11</v>
+        <v>-39</v>
       </c>
       <c r="AN39" s="17">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="17">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ39" s="17">
         <v>0</v>
       </c>
       <c r="AR39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="17">
+        <v>-4</v>
+      </c>
+      <c r="AT39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="17">
+        <v>-4</v>
+      </c>
+      <c r="AW39" s="17">
+        <v>-20</v>
+      </c>
+      <c r="AX39" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AY39" s="17">
         <v>-2</v>
-      </c>
-      <c r="AS39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="17">
-        <v>-4</v>
-      </c>
-      <c r="AV39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="17">
-        <v>-4</v>
-      </c>
-      <c r="AY39" s="17">
-        <v>-20</v>
       </c>
       <c r="AZ39" s="17">
         <v>-1</v>
       </c>
       <c r="BA39" s="17">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="BB39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5274,67 +5274,67 @@
         <v>0</v>
       </c>
       <c r="AH40" s="15">
-        <v>0</v>
+        <v>1673</v>
       </c>
       <c r="AI40" s="15">
-        <v>0</v>
+        <v>1875</v>
       </c>
       <c r="AJ40" s="15">
-        <v>1673</v>
+        <v>2001</v>
       </c>
       <c r="AK40" s="15">
         <v>1875</v>
       </c>
       <c r="AL40" s="15">
-        <v>2001</v>
+        <v>2233</v>
       </c>
       <c r="AM40" s="15">
-        <v>1875</v>
+        <v>2407</v>
       </c>
       <c r="AN40" s="15">
-        <v>2233</v>
+        <v>1812</v>
       </c>
       <c r="AO40" s="15">
-        <v>2407</v>
+        <v>2509</v>
       </c>
       <c r="AP40" s="15">
-        <v>1812</v>
+        <v>2767</v>
       </c>
       <c r="AQ40" s="15">
-        <v>2509</v>
+        <v>2759</v>
       </c>
       <c r="AR40" s="15">
-        <v>2767</v>
+        <v>2705</v>
       </c>
       <c r="AS40" s="15">
-        <v>2759</v>
+        <v>2370</v>
       </c>
       <c r="AT40" s="15">
-        <v>2705</v>
+        <v>1856</v>
       </c>
       <c r="AU40" s="15">
-        <v>2370</v>
+        <v>2961</v>
       </c>
       <c r="AV40" s="15">
-        <v>1856</v>
+        <v>2999</v>
       </c>
       <c r="AW40" s="15">
-        <v>2961</v>
+        <v>2581</v>
       </c>
       <c r="AX40" s="15">
-        <v>2995</v>
+        <v>2162</v>
       </c>
       <c r="AY40" s="15">
-        <v>2581</v>
+        <v>2623</v>
       </c>
       <c r="AZ40" s="15">
-        <v>2162</v>
+        <v>2718</v>
       </c>
       <c r="BA40" s="15">
-        <v>2622</v>
+        <v>2693</v>
       </c>
       <c r="BB40" s="15">
-        <v>2718</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5899,35 +5899,35 @@
       <c r="AR47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS47" s="11" t="s">
-        <v>57</v>
+      <c r="AS47" s="11">
+        <v>543</v>
       </c>
       <c r="AT47" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AU47" s="11">
-        <v>543</v>
-      </c>
-      <c r="AV47" s="11" t="s">
-        <v>57</v>
+        <v>732</v>
+      </c>
+      <c r="AV47" s="11">
+        <v>1363</v>
       </c>
       <c r="AW47" s="11">
-        <v>732</v>
+        <v>1719</v>
       </c>
       <c r="AX47" s="11">
-        <v>1363</v>
+        <v>953</v>
       </c>
       <c r="AY47" s="11">
-        <v>1719</v>
+        <v>23418</v>
       </c>
       <c r="AZ47" s="11">
-        <v>953</v>
+        <v>106660</v>
       </c>
       <c r="BA47" s="11">
-        <v>23418</v>
+        <v>153420</v>
       </c>
       <c r="BB47" s="11">
-        <v>106660</v>
+        <v>53662</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6025,68 +6025,68 @@
       <c r="AG48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI48" s="13" t="s">
-        <v>57</v>
+      <c r="AH48" s="13">
+        <v>736688</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>738597</v>
       </c>
       <c r="AJ48" s="13">
-        <v>736688</v>
+        <v>692457</v>
       </c>
       <c r="AK48" s="13">
-        <v>738597</v>
+        <v>655805</v>
       </c>
       <c r="AL48" s="13">
-        <v>692457</v>
+        <v>863957</v>
       </c>
       <c r="AM48" s="13">
-        <v>655805</v>
+        <v>797093</v>
       </c>
       <c r="AN48" s="13">
-        <v>863957</v>
+        <v>721306</v>
       </c>
       <c r="AO48" s="13">
-        <v>797093</v>
+        <v>857805</v>
       </c>
       <c r="AP48" s="13">
-        <v>721306</v>
+        <v>1070846</v>
       </c>
       <c r="AQ48" s="13">
-        <v>857805</v>
+        <v>946960</v>
       </c>
       <c r="AR48" s="13">
-        <v>1070846</v>
+        <v>1050579</v>
       </c>
       <c r="AS48" s="13">
-        <v>946960</v>
+        <v>952095</v>
       </c>
       <c r="AT48" s="13">
-        <v>1050579</v>
+        <v>651392</v>
       </c>
       <c r="AU48" s="13">
-        <v>952095</v>
+        <v>1158632</v>
       </c>
       <c r="AV48" s="13">
-        <v>651392</v>
+        <v>1215575</v>
       </c>
       <c r="AW48" s="13">
-        <v>1158632</v>
+        <v>1246293</v>
       </c>
       <c r="AX48" s="13">
-        <v>1215575</v>
+        <v>840217</v>
       </c>
       <c r="AY48" s="13">
-        <v>1246293</v>
+        <v>1376641</v>
       </c>
       <c r="AZ48" s="13">
-        <v>840217</v>
+        <v>1322155</v>
       </c>
       <c r="BA48" s="13">
-        <v>1376641</v>
+        <v>1181695</v>
       </c>
       <c r="BB48" s="13">
-        <v>1322155</v>
+        <v>1349508</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6184,68 +6184,68 @@
       <c r="AG49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI49" s="11" t="s">
-        <v>57</v>
+      <c r="AH49" s="11">
+        <v>129795</v>
+      </c>
+      <c r="AI49" s="11">
+        <v>223254</v>
       </c>
       <c r="AJ49" s="11">
-        <v>129795</v>
+        <v>262005</v>
       </c>
       <c r="AK49" s="11">
-        <v>223254</v>
+        <v>177138</v>
       </c>
       <c r="AL49" s="11">
-        <v>262005</v>
+        <v>160027</v>
       </c>
       <c r="AM49" s="11">
-        <v>177138</v>
+        <v>151050</v>
       </c>
       <c r="AN49" s="11">
-        <v>160027</v>
+        <v>139315</v>
       </c>
       <c r="AO49" s="11">
-        <v>151050</v>
+        <v>192822</v>
       </c>
       <c r="AP49" s="11">
-        <v>139315</v>
+        <v>162684</v>
       </c>
       <c r="AQ49" s="11">
-        <v>192822</v>
+        <v>393042</v>
       </c>
       <c r="AR49" s="11">
-        <v>162684</v>
+        <v>274605</v>
       </c>
       <c r="AS49" s="11">
-        <v>393042</v>
+        <v>207194</v>
       </c>
       <c r="AT49" s="11">
-        <v>274605</v>
+        <v>196161</v>
       </c>
       <c r="AU49" s="11">
-        <v>207194</v>
+        <v>237024</v>
       </c>
       <c r="AV49" s="11">
-        <v>196161</v>
+        <v>246749</v>
       </c>
       <c r="AW49" s="11">
-        <v>237024</v>
+        <v>186074</v>
       </c>
       <c r="AX49" s="11">
-        <v>246749</v>
+        <v>327156</v>
       </c>
       <c r="AY49" s="11">
-        <v>186074</v>
+        <v>438184</v>
       </c>
       <c r="AZ49" s="11">
-        <v>327156</v>
+        <v>239781</v>
       </c>
       <c r="BA49" s="11">
-        <v>438184</v>
+        <v>300545</v>
       </c>
       <c r="BB49" s="11">
-        <v>239781</v>
+        <v>275585</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6343,68 +6343,68 @@
       <c r="AG50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI50" s="13" t="s">
-        <v>57</v>
+      <c r="AH50" s="13">
+        <v>72515</v>
+      </c>
+      <c r="AI50" s="13">
+        <v>104015</v>
       </c>
       <c r="AJ50" s="13">
-        <v>72515</v>
+        <v>168122</v>
       </c>
       <c r="AK50" s="13">
-        <v>104015</v>
+        <v>172882</v>
       </c>
       <c r="AL50" s="13">
-        <v>168122</v>
+        <v>139314</v>
       </c>
       <c r="AM50" s="13">
-        <v>172882</v>
+        <v>304424</v>
       </c>
       <c r="AN50" s="13">
-        <v>139314</v>
+        <v>105707</v>
       </c>
       <c r="AO50" s="13">
-        <v>304424</v>
+        <v>230849</v>
       </c>
       <c r="AP50" s="13">
-        <v>105707</v>
+        <v>236408</v>
       </c>
       <c r="AQ50" s="13">
-        <v>230849</v>
+        <v>311207</v>
       </c>
       <c r="AR50" s="13">
-        <v>236408</v>
+        <v>230217</v>
       </c>
       <c r="AS50" s="13">
-        <v>311207</v>
+        <v>237837</v>
       </c>
       <c r="AT50" s="13">
-        <v>230217</v>
+        <v>166812</v>
       </c>
       <c r="AU50" s="13">
-        <v>237837</v>
+        <v>129350</v>
       </c>
       <c r="AV50" s="13">
-        <v>166812</v>
+        <v>381616</v>
       </c>
       <c r="AW50" s="13">
-        <v>129350</v>
+        <v>208671</v>
       </c>
       <c r="AX50" s="13">
-        <v>381616</v>
+        <v>246905</v>
       </c>
       <c r="AY50" s="13">
-        <v>208671</v>
+        <v>249497</v>
       </c>
       <c r="AZ50" s="13">
-        <v>246905</v>
+        <v>212591</v>
       </c>
       <c r="BA50" s="13">
-        <v>249497</v>
+        <v>260553</v>
       </c>
       <c r="BB50" s="13">
-        <v>212591</v>
+        <v>184864</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -6502,68 +6502,68 @@
       <c r="AG51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI51" s="11" t="s">
-        <v>57</v>
+      <c r="AH51" s="11">
+        <v>31449</v>
+      </c>
+      <c r="AI51" s="11">
+        <v>63430</v>
       </c>
       <c r="AJ51" s="11">
-        <v>31449</v>
+        <v>48907</v>
       </c>
       <c r="AK51" s="11">
-        <v>63430</v>
+        <v>48217</v>
       </c>
       <c r="AL51" s="11">
-        <v>48907</v>
+        <v>66774</v>
       </c>
       <c r="AM51" s="11">
-        <v>48217</v>
+        <v>103732</v>
       </c>
       <c r="AN51" s="11">
-        <v>66774</v>
+        <v>63874</v>
       </c>
       <c r="AO51" s="11">
-        <v>103732</v>
+        <v>126152</v>
       </c>
       <c r="AP51" s="11">
-        <v>63874</v>
+        <v>108545</v>
       </c>
       <c r="AQ51" s="11">
-        <v>126152</v>
+        <v>60838</v>
       </c>
       <c r="AR51" s="11">
-        <v>108545</v>
+        <v>64510</v>
       </c>
       <c r="AS51" s="11">
-        <v>60838</v>
+        <v>69371</v>
       </c>
       <c r="AT51" s="11">
-        <v>64510</v>
+        <v>89761</v>
       </c>
       <c r="AU51" s="11">
-        <v>69371</v>
+        <v>147625</v>
       </c>
       <c r="AV51" s="11">
-        <v>89761</v>
+        <v>98329</v>
       </c>
       <c r="AW51" s="11">
-        <v>147625</v>
+        <v>107721</v>
       </c>
       <c r="AX51" s="11">
-        <v>98329</v>
+        <v>125885</v>
       </c>
       <c r="AY51" s="11">
-        <v>107721</v>
+        <v>117835</v>
       </c>
       <c r="AZ51" s="11">
-        <v>125885</v>
+        <v>93364</v>
       </c>
       <c r="BA51" s="11">
-        <v>117834</v>
+        <v>143701</v>
       </c>
       <c r="BB51" s="11">
-        <v>93364</v>
+        <v>157227</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6751,20 +6751,20 @@
       <c r="AR53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS53" s="11" t="s">
-        <v>57</v>
+      <c r="AS53" s="11">
+        <v>1017257</v>
       </c>
       <c r="AT53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU53" s="11">
-        <v>1017257</v>
-      </c>
-      <c r="AV53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW53" s="11" t="s">
-        <v>57</v>
+      <c r="AU53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="11">
+        <v>0</v>
       </c>
       <c r="AX53" s="11">
         <v>0</v>
@@ -6877,11 +6877,11 @@
       <c r="AG54" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AH54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI54" s="15" t="s">
-        <v>57</v>
+      <c r="AH54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="15">
+        <v>0</v>
       </c>
       <c r="AJ54" s="15">
         <v>0</v>
@@ -6911,13 +6911,13 @@
         <v>0</v>
       </c>
       <c r="AS54" s="15">
-        <v>0</v>
+        <v>1017257</v>
       </c>
       <c r="AT54" s="15">
         <v>0</v>
       </c>
       <c r="AU54" s="15">
-        <v>1017257</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="15">
         <v>0</v>
@@ -7099,23 +7099,23 @@
       <c r="AI56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK56" s="11" t="s">
-        <v>57</v>
+      <c r="AJ56" s="11">
+        <v>-10941</v>
+      </c>
+      <c r="AK56" s="11">
+        <v>0</v>
       </c>
       <c r="AL56" s="11">
-        <v>-10941</v>
+        <v>-29518</v>
       </c>
       <c r="AM56" s="11">
-        <v>0</v>
+        <v>-24238</v>
       </c>
       <c r="AN56" s="11">
-        <v>-29518</v>
+        <v>0</v>
       </c>
       <c r="AO56" s="11">
-        <v>-24238</v>
+        <v>0</v>
       </c>
       <c r="AP56" s="11">
         <v>0</v>
@@ -7129,29 +7129,29 @@
       <c r="AS56" s="11">
         <v>0</v>
       </c>
-      <c r="AT56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW56" s="11" t="s">
-        <v>57</v>
+      <c r="AT56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="11">
+        <v>-10666</v>
       </c>
       <c r="AX56" s="11">
         <v>0</v>
       </c>
       <c r="AY56" s="11">
-        <v>-10666</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="11">
         <v>0</v>
       </c>
       <c r="BA56" s="11">
-        <v>0</v>
+        <v>-1350</v>
       </c>
       <c r="BB56" s="11">
         <v>0</v>
@@ -7261,14 +7261,14 @@
       <c r="AJ57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL57" s="13" t="s">
-        <v>57</v>
+      <c r="AK57" s="13">
+        <v>-177</v>
+      </c>
+      <c r="AL57" s="13">
+        <v>0</v>
       </c>
       <c r="AM57" s="13">
-        <v>-177</v>
+        <v>0</v>
       </c>
       <c r="AN57" s="13">
         <v>0</v>
@@ -7288,11 +7288,11 @@
       <c r="AS57" s="13">
         <v>0</v>
       </c>
-      <c r="AT57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU57" s="13">
-        <v>0</v>
+      <c r="AT57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV57" s="13" t="s">
         <v>57</v>
@@ -7300,20 +7300,20 @@
       <c r="AW57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY57" s="13" t="s">
-        <v>57</v>
+      <c r="AX57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="13">
+        <v>0</v>
       </c>
       <c r="AZ57" s="13">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="BA57" s="13">
         <v>0</v>
       </c>
       <c r="BB57" s="13">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7411,23 +7411,23 @@
       <c r="AG58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI58" s="11" t="s">
-        <v>57</v>
+      <c r="AH58" s="11">
+        <v>-8492</v>
+      </c>
+      <c r="AI58" s="11">
+        <v>-2601</v>
       </c>
       <c r="AJ58" s="11">
-        <v>-8492</v>
+        <v>-91</v>
       </c>
       <c r="AK58" s="11">
-        <v>-2601</v>
+        <v>-5950</v>
       </c>
       <c r="AL58" s="11">
-        <v>-91</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="11">
-        <v>-5950</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="11">
         <v>0</v>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="11">
-        <v>-2190</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="11">
         <v>0</v>
@@ -7579,56 +7579,56 @@
       <c r="AJ59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL59" s="13" t="s">
-        <v>57</v>
+      <c r="AK59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="13">
+        <v>-2019</v>
       </c>
       <c r="AM59" s="13">
         <v>0</v>
       </c>
       <c r="AN59" s="13">
-        <v>-2019</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="13">
         <v>0</v>
       </c>
       <c r="AP59" s="13">
-        <v>0</v>
+        <v>-1032</v>
       </c>
       <c r="AQ59" s="13">
         <v>0</v>
       </c>
       <c r="AR59" s="13">
-        <v>-1032</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU59" s="13">
         <v>-2104</v>
       </c>
-      <c r="AV59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX59" s="13" t="s">
-        <v>57</v>
+      <c r="AT59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="13">
+        <v>-2515</v>
+      </c>
+      <c r="AX59" s="13">
+        <v>-391</v>
       </c>
       <c r="AY59" s="13">
-        <v>-2515</v>
+        <v>-1076</v>
       </c>
       <c r="AZ59" s="13">
-        <v>-391</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="13">
-        <v>-1076</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="13">
         <v>0</v>
@@ -7729,68 +7729,68 @@
       <c r="AG60" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AH60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI60" s="17" t="s">
-        <v>57</v>
+      <c r="AH60" s="17">
+        <v>-8492</v>
+      </c>
+      <c r="AI60" s="17">
+        <v>-2601</v>
       </c>
       <c r="AJ60" s="17">
-        <v>-8492</v>
+        <v>-11032</v>
       </c>
       <c r="AK60" s="17">
-        <v>-2601</v>
+        <v>-6127</v>
       </c>
       <c r="AL60" s="17">
-        <v>-11032</v>
+        <v>-31537</v>
       </c>
       <c r="AM60" s="17">
-        <v>-6127</v>
+        <v>-24238</v>
       </c>
       <c r="AN60" s="17">
-        <v>-31537</v>
+        <v>0</v>
       </c>
       <c r="AO60" s="17">
-        <v>-24238</v>
+        <v>0</v>
       </c>
       <c r="AP60" s="17">
-        <v>0</v>
+        <v>-1032</v>
       </c>
       <c r="AQ60" s="17">
         <v>0</v>
       </c>
       <c r="AR60" s="17">
-        <v>-1032</v>
+        <v>0</v>
       </c>
       <c r="AS60" s="17">
-        <v>0</v>
+        <v>-2104</v>
       </c>
       <c r="AT60" s="17">
         <v>0</v>
       </c>
       <c r="AU60" s="17">
-        <v>-2104</v>
+        <v>0</v>
       </c>
       <c r="AV60" s="17">
-        <v>0</v>
+        <v>-2190</v>
       </c>
       <c r="AW60" s="17">
-        <v>0</v>
+        <v>-13181</v>
       </c>
       <c r="AX60" s="17">
-        <v>-2190</v>
+        <v>-391</v>
       </c>
       <c r="AY60" s="17">
-        <v>-13181</v>
+        <v>-1076</v>
       </c>
       <c r="AZ60" s="17">
-        <v>-391</v>
+        <v>-20</v>
       </c>
       <c r="BA60" s="17">
-        <v>-1076</v>
+        <v>-1350</v>
       </c>
       <c r="BB60" s="17">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7945,68 +7945,68 @@
       <c r="AG62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI62" s="11" t="s">
-        <v>57</v>
+      <c r="AH62" s="11">
+        <v>-1667</v>
+      </c>
+      <c r="AI62" s="11">
+        <v>-2094</v>
       </c>
       <c r="AJ62" s="11">
-        <v>-1667</v>
+        <v>-4779</v>
       </c>
       <c r="AK62" s="11">
-        <v>-2094</v>
+        <v>-5947</v>
       </c>
       <c r="AL62" s="11">
-        <v>-4779</v>
+        <v>-27148</v>
       </c>
       <c r="AM62" s="11">
-        <v>-5947</v>
+        <v>-54419</v>
       </c>
       <c r="AN62" s="11">
-        <v>-27148</v>
+        <v>-45778</v>
       </c>
       <c r="AO62" s="11">
-        <v>-54419</v>
+        <v>-10506</v>
       </c>
       <c r="AP62" s="11">
-        <v>-45778</v>
+        <v>-27326</v>
       </c>
       <c r="AQ62" s="11">
-        <v>-10506</v>
+        <v>-66610</v>
       </c>
       <c r="AR62" s="11">
-        <v>-27326</v>
+        <v>-107832</v>
       </c>
       <c r="AS62" s="11">
-        <v>-66610</v>
+        <v>-92389</v>
       </c>
       <c r="AT62" s="11">
-        <v>-107832</v>
+        <v>-66891</v>
       </c>
       <c r="AU62" s="11">
-        <v>-92389</v>
+        <v>-40112</v>
       </c>
       <c r="AV62" s="11">
-        <v>-66891</v>
+        <v>-8036</v>
       </c>
       <c r="AW62" s="11">
-        <v>-40112</v>
+        <v>-8348</v>
       </c>
       <c r="AX62" s="11">
-        <v>-8036</v>
+        <v>-32421</v>
       </c>
       <c r="AY62" s="11">
-        <v>-8348</v>
+        <v>-50536</v>
       </c>
       <c r="AZ62" s="11">
-        <v>-32421</v>
+        <v>-29093</v>
       </c>
       <c r="BA62" s="11">
-        <v>-50536</v>
+        <v>-21147</v>
       </c>
       <c r="BB62" s="11">
-        <v>-29093</v>
+        <v>-9379</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8103,67 +8103,67 @@
         <v>0</v>
       </c>
       <c r="AH63" s="15">
-        <v>0</v>
+        <v>960288</v>
       </c>
       <c r="AI63" s="15">
-        <v>0</v>
+        <v>1124601</v>
       </c>
       <c r="AJ63" s="15">
-        <v>960288</v>
+        <v>1155680</v>
       </c>
       <c r="AK63" s="15">
-        <v>1124601</v>
+        <v>1041968</v>
       </c>
       <c r="AL63" s="15">
-        <v>1155680</v>
+        <v>1171387</v>
       </c>
       <c r="AM63" s="15">
-        <v>1041968</v>
+        <v>1277642</v>
       </c>
       <c r="AN63" s="15">
-        <v>1171387</v>
+        <v>984424</v>
       </c>
       <c r="AO63" s="15">
-        <v>1277642</v>
+        <v>1397122</v>
       </c>
       <c r="AP63" s="15">
-        <v>984424</v>
+        <v>1550125</v>
       </c>
       <c r="AQ63" s="15">
-        <v>1397122</v>
+        <v>1645437</v>
       </c>
       <c r="AR63" s="15">
-        <v>1550125</v>
+        <v>1512079</v>
       </c>
       <c r="AS63" s="15">
-        <v>1645437</v>
+        <v>2389804</v>
       </c>
       <c r="AT63" s="15">
-        <v>1512079</v>
+        <v>1037235</v>
       </c>
       <c r="AU63" s="15">
-        <v>2389804</v>
+        <v>1633251</v>
       </c>
       <c r="AV63" s="15">
-        <v>1037235</v>
+        <v>1935596</v>
       </c>
       <c r="AW63" s="15">
-        <v>1633251</v>
+        <v>1728949</v>
       </c>
       <c r="AX63" s="15">
-        <v>1933406</v>
+        <v>1508304</v>
       </c>
       <c r="AY63" s="15">
-        <v>1728949</v>
+        <v>2153963</v>
       </c>
       <c r="AZ63" s="15">
-        <v>1508304</v>
+        <v>1945438</v>
       </c>
       <c r="BA63" s="15">
-        <v>2153962</v>
+        <v>2017417</v>
       </c>
       <c r="BB63" s="15">
-        <v>1945438</v>
+        <v>2011467</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8728,35 +8728,35 @@
       <c r="AR70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS70" s="11" t="s">
-        <v>57</v>
+      <c r="AS70" s="11">
+        <v>543000000</v>
       </c>
       <c r="AT70" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AU70" s="11">
-        <v>543000000</v>
-      </c>
-      <c r="AV70" s="11" t="s">
-        <v>57</v>
+        <v>732000000</v>
+      </c>
+      <c r="AV70" s="11">
+        <v>454333333</v>
       </c>
       <c r="AW70" s="11">
-        <v>732000000</v>
+        <v>859500000</v>
       </c>
       <c r="AX70" s="11">
-        <v>454333333</v>
+        <v>953000000</v>
       </c>
       <c r="AY70" s="11">
-        <v>859500000</v>
+        <v>755419355</v>
       </c>
       <c r="AZ70" s="11">
-        <v>953000000</v>
+        <v>740694444</v>
       </c>
       <c r="BA70" s="11">
-        <v>755419355</v>
+        <v>752058824</v>
       </c>
       <c r="BB70" s="11">
-        <v>740694444</v>
+        <v>777710145</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -8854,68 +8854,68 @@
       <c r="AG71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI71" s="13" t="s">
-        <v>57</v>
+      <c r="AH71" s="13">
+        <v>577794510</v>
+      </c>
+      <c r="AI71" s="13">
+        <v>588523506</v>
       </c>
       <c r="AJ71" s="13">
-        <v>577794510</v>
+        <v>595918244</v>
       </c>
       <c r="AK71" s="13">
-        <v>588523506</v>
+        <v>578821712</v>
       </c>
       <c r="AL71" s="13">
-        <v>595918244</v>
+        <v>535621203</v>
       </c>
       <c r="AM71" s="13">
-        <v>578821712</v>
+        <v>555465505</v>
       </c>
       <c r="AN71" s="13">
-        <v>535621203</v>
+        <v>565730196</v>
       </c>
       <c r="AO71" s="13">
-        <v>555465505</v>
+        <v>561390707</v>
       </c>
       <c r="AP71" s="13">
-        <v>565730196</v>
+        <v>561240042</v>
       </c>
       <c r="AQ71" s="13">
-        <v>561390707</v>
+        <v>564338498</v>
       </c>
       <c r="AR71" s="13">
-        <v>561240042</v>
+        <v>566349865</v>
       </c>
       <c r="AS71" s="13">
-        <v>564338498</v>
+        <v>551619351</v>
       </c>
       <c r="AT71" s="13">
-        <v>566349865</v>
+        <v>550162162</v>
       </c>
       <c r="AU71" s="13">
-        <v>551619351</v>
+        <v>539149372</v>
       </c>
       <c r="AV71" s="13">
-        <v>550162162</v>
+        <v>622095701</v>
       </c>
       <c r="AW71" s="13">
-        <v>539149372</v>
+        <v>667180407</v>
       </c>
       <c r="AX71" s="13">
-        <v>622095701</v>
+        <v>660547956</v>
       </c>
       <c r="AY71" s="13">
-        <v>667180407</v>
+        <v>877959821</v>
       </c>
       <c r="AZ71" s="13">
-        <v>660547956</v>
+        <v>708930295</v>
       </c>
       <c r="BA71" s="13">
-        <v>877959821</v>
+        <v>709726727</v>
       </c>
       <c r="BB71" s="13">
-        <v>708930295</v>
+        <v>804235995</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9013,68 +9013,68 @@
       <c r="AG72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI72" s="11" t="s">
-        <v>57</v>
+      <c r="AH72" s="11">
+        <v>589977273</v>
+      </c>
+      <c r="AI72" s="11">
+        <v>751696970</v>
       </c>
       <c r="AJ72" s="11">
-        <v>589977273</v>
+        <v>634394673</v>
       </c>
       <c r="AK72" s="11">
-        <v>751696970</v>
+        <v>582690789</v>
       </c>
       <c r="AL72" s="11">
-        <v>634394673</v>
+        <v>603875472</v>
       </c>
       <c r="AM72" s="11">
-        <v>582690789</v>
+        <v>614024390</v>
       </c>
       <c r="AN72" s="11">
-        <v>603875472</v>
+        <v>654061033</v>
       </c>
       <c r="AO72" s="11">
-        <v>614024390</v>
+        <v>628084691</v>
       </c>
       <c r="AP72" s="11">
-        <v>654061033</v>
+        <v>664016327</v>
       </c>
       <c r="AQ72" s="11">
-        <v>628084691</v>
+        <v>854439130</v>
       </c>
       <c r="AR72" s="11">
-        <v>664016327</v>
+        <v>780127841</v>
       </c>
       <c r="AS72" s="11">
-        <v>854439130</v>
+        <v>756182482</v>
       </c>
       <c r="AT72" s="11">
-        <v>780127841</v>
+        <v>778416667</v>
       </c>
       <c r="AU72" s="11">
-        <v>756182482</v>
+        <v>754853503</v>
       </c>
       <c r="AV72" s="11">
-        <v>778416667</v>
+        <v>783330159</v>
       </c>
       <c r="AW72" s="11">
-        <v>754853503</v>
+        <v>791804255</v>
       </c>
       <c r="AX72" s="11">
-        <v>783330159</v>
+        <v>838861538</v>
       </c>
       <c r="AY72" s="11">
-        <v>791804255</v>
+        <v>887012146</v>
       </c>
       <c r="AZ72" s="11">
-        <v>838861538</v>
+        <v>878318681</v>
       </c>
       <c r="BA72" s="11">
-        <v>887012146</v>
+        <v>936277259</v>
       </c>
       <c r="BB72" s="11">
-        <v>878318681</v>
+        <v>921688963</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9172,68 +9172,68 @@
       <c r="AG73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI73" s="13" t="s">
-        <v>57</v>
+      <c r="AH73" s="13">
+        <v>557807692</v>
+      </c>
+      <c r="AI73" s="13">
+        <v>533410256</v>
       </c>
       <c r="AJ73" s="13">
-        <v>557807692</v>
+        <v>503359281</v>
       </c>
       <c r="AK73" s="13">
-        <v>533410256</v>
+        <v>502563953</v>
       </c>
       <c r="AL73" s="13">
-        <v>503359281</v>
+        <v>521775281</v>
       </c>
       <c r="AM73" s="13">
-        <v>502563953</v>
+        <v>553498182</v>
       </c>
       <c r="AN73" s="13">
-        <v>521775281</v>
+        <v>553439791</v>
       </c>
       <c r="AO73" s="13">
-        <v>553498182</v>
+        <v>554925481</v>
       </c>
       <c r="AP73" s="13">
-        <v>553439791</v>
+        <v>601547074</v>
       </c>
       <c r="AQ73" s="13">
-        <v>554925481</v>
+        <v>628701010</v>
       </c>
       <c r="AR73" s="13">
-        <v>601547074</v>
+        <v>632464286</v>
       </c>
       <c r="AS73" s="13">
-        <v>628701010</v>
+        <v>1003531646</v>
       </c>
       <c r="AT73" s="13">
-        <v>632464286</v>
+        <v>700890756</v>
       </c>
       <c r="AU73" s="13">
-        <v>1003531646</v>
+        <v>670207254</v>
       </c>
       <c r="AV73" s="13">
-        <v>700890756</v>
+        <v>714636704</v>
       </c>
       <c r="AW73" s="13">
-        <v>670207254</v>
+        <v>717082474</v>
       </c>
       <c r="AX73" s="13">
-        <v>714636704</v>
+        <v>737029851</v>
       </c>
       <c r="AY73" s="13">
-        <v>717082474</v>
+        <v>735979351</v>
       </c>
       <c r="AZ73" s="13">
-        <v>737029851</v>
+        <v>740735192</v>
       </c>
       <c r="BA73" s="13">
-        <v>735979351</v>
+        <v>768592920</v>
       </c>
       <c r="BB73" s="13">
-        <v>740735192</v>
+        <v>814378855</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -9331,68 +9331,68 @@
       <c r="AG74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI74" s="11" t="s">
-        <v>57</v>
+      <c r="AH74" s="11">
+        <v>469388060</v>
+      </c>
+      <c r="AI74" s="11">
+        <v>476917293</v>
       </c>
       <c r="AJ74" s="11">
-        <v>469388060</v>
+        <v>444609091</v>
       </c>
       <c r="AK74" s="11">
-        <v>476917293</v>
+        <v>459209524</v>
       </c>
       <c r="AL74" s="11">
-        <v>444609091</v>
+        <v>473574468</v>
       </c>
       <c r="AM74" s="11">
-        <v>459209524</v>
+        <v>482474419</v>
       </c>
       <c r="AN74" s="11">
-        <v>473574468</v>
+        <v>480255639</v>
       </c>
       <c r="AO74" s="11">
-        <v>482474419</v>
+        <v>488961240</v>
       </c>
       <c r="AP74" s="11">
-        <v>480255639</v>
+        <v>486748879</v>
       </c>
       <c r="AQ74" s="11">
-        <v>488961240</v>
+        <v>482841270</v>
       </c>
       <c r="AR74" s="11">
-        <v>486748879</v>
+        <v>481417910</v>
       </c>
       <c r="AS74" s="11">
-        <v>482841270</v>
+        <v>510080882</v>
       </c>
       <c r="AT74" s="11">
-        <v>481417910</v>
+        <v>493192308</v>
       </c>
       <c r="AU74" s="11">
-        <v>510080882</v>
+        <v>485608553</v>
       </c>
       <c r="AV74" s="11">
-        <v>493192308</v>
+        <v>509476684</v>
       </c>
       <c r="AW74" s="11">
-        <v>485608553</v>
+        <v>525468293</v>
       </c>
       <c r="AX74" s="11">
-        <v>509476684</v>
+        <v>762939394</v>
       </c>
       <c r="AY74" s="11">
-        <v>525468293</v>
+        <v>613273733</v>
       </c>
       <c r="AZ74" s="11">
-        <v>762939394</v>
+        <v>622426667</v>
       </c>
       <c r="BA74" s="11">
-        <v>613718750</v>
+        <v>825867816</v>
       </c>
       <c r="BB74" s="11">
-        <v>622426667</v>
+        <v>721224771</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9580,20 +9580,20 @@
       <c r="AR76" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS76" s="11" t="s">
-        <v>57</v>
+      <c r="AS76" s="11">
+        <v>0</v>
       </c>
       <c r="AT76" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU76" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW76" s="11" t="s">
-        <v>57</v>
+      <c r="AU76" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV76" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW76" s="11">
+        <v>0</v>
       </c>
       <c r="AX76" s="11">
         <v>0</v>

--- a/database/industries/lastic/parta/product/monthly.xlsx
+++ b/database/industries/lastic/parta/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\parta\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F195B74-44A6-4D25-9AB6-1CD17D899B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D7887-F183-429D-8E93-BA296762BC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پارتا-مجتمع صنعتی آرتاویل تایر</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -732,16 +732,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BB76"/>
+  <dimension ref="B1:BB78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -796,7 +796,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -853,7 +853,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -965,7 +965,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1134,7 +1134,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1346,7 +1346,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1525,44 +1525,44 @@
       <c r="AP11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>57</v>
+      <c r="AQ11" s="11">
+        <v>1</v>
       </c>
       <c r="AR11" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AS11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>57</v>
+        <v>80</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>28</v>
       </c>
       <c r="AU11" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="11">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AX11" s="11">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="AY11" s="11">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="AZ11" s="11">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="11">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1651,77 +1651,77 @@
       <c r="AE12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>57</v>
+      <c r="AF12" s="13">
+        <v>986</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>1544</v>
       </c>
       <c r="AH12" s="13">
-        <v>986</v>
+        <v>2068</v>
       </c>
       <c r="AI12" s="13">
-        <v>1544</v>
+        <v>1690</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2068</v>
+        <v>1202</v>
       </c>
       <c r="AK12" s="13">
-        <v>1690</v>
+        <v>1405</v>
       </c>
       <c r="AL12" s="13">
-        <v>1202</v>
+        <v>1429</v>
       </c>
       <c r="AM12" s="13">
-        <v>1405</v>
+        <v>1481</v>
       </c>
       <c r="AN12" s="13">
-        <v>1429</v>
+        <v>1623</v>
       </c>
       <c r="AO12" s="13">
-        <v>1481</v>
+        <v>1628</v>
       </c>
       <c r="AP12" s="13">
         <v>1623</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1628</v>
+        <v>1338</v>
       </c>
       <c r="AR12" s="13">
-        <v>1623</v>
+        <v>1193</v>
       </c>
       <c r="AS12" s="13">
-        <v>1338</v>
+        <v>1760</v>
       </c>
       <c r="AT12" s="13">
-        <v>1193</v>
+        <v>1743</v>
       </c>
       <c r="AU12" s="13">
-        <v>1760</v>
+        <v>1725</v>
       </c>
       <c r="AV12" s="13">
-        <v>1743</v>
+        <v>1474</v>
       </c>
       <c r="AW12" s="13">
-        <v>1725</v>
+        <v>1606</v>
       </c>
       <c r="AX12" s="13">
-        <v>1474</v>
+        <v>1614</v>
       </c>
       <c r="AY12" s="13">
-        <v>1606</v>
+        <v>1453</v>
       </c>
       <c r="AZ12" s="13">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="BA12" s="13">
-        <v>1453</v>
+        <v>1471</v>
       </c>
       <c r="BB12" s="13">
-        <v>1618</v>
+        <v>1550</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1810,77 +1810,77 @@
       <c r="AE13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG13" s="11" t="s">
-        <v>57</v>
+      <c r="AF13" s="11">
+        <v>160</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>357</v>
       </c>
       <c r="AH13" s="11">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="AI13" s="11">
+        <v>262</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>235</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>299</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>319</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>309</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>307</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>306</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>300</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>261</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>246</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>363</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>367</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>349</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>320</v>
+      </c>
+      <c r="AW13" s="11">
         <v>357</v>
       </c>
-      <c r="AJ13" s="11">
-        <v>276</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>262</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>235</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>299</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>319</v>
-      </c>
-      <c r="AO13" s="11">
+      <c r="AX13" s="11">
+        <v>344</v>
+      </c>
+      <c r="AY13" s="11">
         <v>309</v>
       </c>
-      <c r="AP13" s="11">
-        <v>307</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>306</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>300</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>261</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>246</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>363</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>367</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>349</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>320</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>357</v>
-      </c>
       <c r="AZ13" s="11">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="BA13" s="11">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="BB13" s="11">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1969,77 +1969,77 @@
       <c r="AE14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>57</v>
+      <c r="AF14" s="13">
+        <v>177</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>148</v>
       </c>
       <c r="AH14" s="13">
-        <v>177</v>
+        <v>586</v>
       </c>
       <c r="AI14" s="13">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="AJ14" s="13">
-        <v>586</v>
+        <v>164</v>
       </c>
       <c r="AK14" s="13">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="AL14" s="13">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="AM14" s="13">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="AN14" s="13">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="AO14" s="13">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="AP14" s="13">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AQ14" s="13">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="AR14" s="13">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="AS14" s="13">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="AT14" s="13">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="AU14" s="13">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AV14" s="13">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="AW14" s="13">
         <v>335</v>
       </c>
       <c r="AX14" s="13">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AY14" s="13">
+        <v>291</v>
+      </c>
+      <c r="AZ14" s="13">
+        <v>336</v>
+      </c>
+      <c r="BA14" s="13">
+        <v>311</v>
+      </c>
+      <c r="BB14" s="13">
         <v>335</v>
       </c>
-      <c r="AZ14" s="13">
-        <v>318</v>
-      </c>
-      <c r="BA14" s="13">
-        <v>291</v>
-      </c>
-      <c r="BB14" s="13">
-        <v>336</v>
-      </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2128,77 +2128,77 @@
       <c r="AE15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>57</v>
+      <c r="AF15" s="11">
+        <v>62</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>138</v>
       </c>
       <c r="AH15" s="11">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="AI15" s="11">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="AJ15" s="11">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="AK15" s="11">
+        <v>184</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>191</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>182</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>180</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>151</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>140</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>122</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>198</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>198</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>188</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>182</v>
+      </c>
+      <c r="AW15" s="11">
         <v>187</v>
       </c>
-      <c r="AL15" s="11">
-        <v>125</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>184</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>191</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>182</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>177</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>180</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>151</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>140</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>122</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>198</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>198</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>188</v>
-      </c>
       <c r="AX15" s="11">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AY15" s="11">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="AZ15" s="11">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="BA15" s="11">
         <v>160</v>
       </c>
       <c r="BB15" s="11">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>62</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2392,8 +2392,8 @@
       <c r="AU17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV17" s="11">
-        <v>0</v>
+      <c r="AV17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW17" s="11" t="s">
         <v>57</v>
@@ -2401,8 +2401,8 @@
       <c r="AX17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY17" s="11">
-        <v>0</v>
+      <c r="AY17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AZ17" s="11" t="s">
         <v>57</v>
@@ -2414,7 +2414,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
@@ -2501,11 +2501,11 @@
       <c r="AE18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AF18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG18" s="15" t="s">
-        <v>57</v>
+      <c r="AF18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="15">
+        <v>0</v>
       </c>
       <c r="AH18" s="15">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>66</v>
       </c>
@@ -2659,76 +2659,76 @@
         <v>0</v>
       </c>
       <c r="AF19" s="17">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="AG19" s="17">
-        <v>0</v>
+        <v>2187</v>
       </c>
       <c r="AH19" s="17">
-        <v>1385</v>
+        <v>3135</v>
       </c>
       <c r="AI19" s="17">
-        <v>2187</v>
+        <v>2493</v>
       </c>
       <c r="AJ19" s="17">
-        <v>3135</v>
+        <v>1726</v>
       </c>
       <c r="AK19" s="17">
-        <v>2493</v>
+        <v>2201</v>
       </c>
       <c r="AL19" s="17">
-        <v>1726</v>
+        <v>2254</v>
       </c>
       <c r="AM19" s="17">
-        <v>2201</v>
+        <v>2237</v>
       </c>
       <c r="AN19" s="17">
-        <v>2254</v>
+        <v>2396</v>
       </c>
       <c r="AO19" s="17">
-        <v>2237</v>
+        <v>2412</v>
       </c>
       <c r="AP19" s="17">
-        <v>2396</v>
+        <v>2360</v>
       </c>
       <c r="AQ19" s="17">
-        <v>2412</v>
+        <v>1998</v>
       </c>
       <c r="AR19" s="17">
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="AS19" s="17">
-        <v>1998</v>
+        <v>2727</v>
       </c>
       <c r="AT19" s="17">
-        <v>1810</v>
+        <v>2663</v>
       </c>
       <c r="AU19" s="17">
-        <v>2727</v>
+        <v>2597</v>
       </c>
       <c r="AV19" s="17">
-        <v>2561</v>
+        <v>2288</v>
       </c>
       <c r="AW19" s="17">
-        <v>2597</v>
+        <v>2518</v>
       </c>
       <c r="AX19" s="17">
-        <v>2288</v>
+        <v>2594</v>
       </c>
       <c r="AY19" s="17">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="AZ19" s="17">
-        <v>2594</v>
+        <v>2473</v>
       </c>
       <c r="BA19" s="17">
-        <v>2517</v>
+        <v>2219</v>
       </c>
       <c r="BB19" s="17">
-        <v>2473</v>
+        <v>2400</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2783,7 +2783,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2838,7 +2838,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2893,7 +2893,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>67</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3105,7 +3105,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>67</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>55</v>
       </c>
@@ -3284,8 +3284,8 @@
       <c r="AP26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ26" s="11" t="s">
-        <v>57</v>
+      <c r="AQ26" s="11">
+        <v>1</v>
       </c>
       <c r="AR26" s="11" t="s">
         <v>57</v>
@@ -3293,35 +3293,35 @@
       <c r="AS26" s="11">
         <v>1</v>
       </c>
-      <c r="AT26" s="11" t="s">
-        <v>57</v>
+      <c r="AT26" s="11">
+        <v>3</v>
       </c>
       <c r="AU26" s="11">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="11">
         <v>1</v>
       </c>
-      <c r="AV26" s="11">
-        <v>3</v>
-      </c>
       <c r="AW26" s="11">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="AX26" s="11">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="AY26" s="11">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="AZ26" s="11">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="BA26" s="11">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="11">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>58</v>
       </c>
@@ -3410,77 +3410,77 @@
       <c r="AE27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG27" s="13" t="s">
-        <v>57</v>
+      <c r="AF27" s="13">
+        <v>1275</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>1255</v>
       </c>
       <c r="AH27" s="13">
+        <v>1162</v>
+      </c>
+      <c r="AI27" s="13">
+        <v>1133</v>
+      </c>
+      <c r="AJ27" s="13">
+        <v>1613</v>
+      </c>
+      <c r="AK27" s="13">
+        <v>1435</v>
+      </c>
+      <c r="AL27" s="13">
         <v>1275</v>
       </c>
-      <c r="AI27" s="13">
-        <v>1255</v>
-      </c>
-      <c r="AJ27" s="13">
-        <v>1162</v>
-      </c>
-      <c r="AK27" s="13">
-        <v>1133</v>
-      </c>
-      <c r="AL27" s="13">
-        <v>1613</v>
-      </c>
       <c r="AM27" s="13">
-        <v>1435</v>
+        <v>1528</v>
       </c>
       <c r="AN27" s="13">
-        <v>1275</v>
+        <v>1908</v>
       </c>
       <c r="AO27" s="13">
-        <v>1528</v>
+        <v>1678</v>
       </c>
       <c r="AP27" s="13">
-        <v>1908</v>
+        <v>1855</v>
       </c>
       <c r="AQ27" s="13">
+        <v>1726</v>
+      </c>
+      <c r="AR27" s="13">
+        <v>1184</v>
+      </c>
+      <c r="AS27" s="13">
+        <v>2149</v>
+      </c>
+      <c r="AT27" s="13">
+        <v>1954</v>
+      </c>
+      <c r="AU27" s="13">
+        <v>1868</v>
+      </c>
+      <c r="AV27" s="13">
+        <v>1272</v>
+      </c>
+      <c r="AW27" s="13">
+        <v>1568</v>
+      </c>
+      <c r="AX27" s="13">
+        <v>1865</v>
+      </c>
+      <c r="AY27" s="13">
+        <v>1665</v>
+      </c>
+      <c r="AZ27" s="13">
         <v>1678</v>
       </c>
-      <c r="AR27" s="13">
-        <v>1855</v>
-      </c>
-      <c r="AS27" s="13">
-        <v>1726</v>
-      </c>
-      <c r="AT27" s="13">
-        <v>1184</v>
-      </c>
-      <c r="AU27" s="13">
-        <v>2149</v>
-      </c>
-      <c r="AV27" s="13">
-        <v>1954</v>
-      </c>
-      <c r="AW27" s="13">
-        <v>1868</v>
-      </c>
-      <c r="AX27" s="13">
-        <v>1272</v>
-      </c>
-      <c r="AY27" s="13">
-        <v>1568</v>
-      </c>
-      <c r="AZ27" s="13">
-        <v>1865</v>
-      </c>
       <c r="BA27" s="13">
-        <v>1665</v>
+        <v>1480</v>
       </c>
       <c r="BB27" s="13">
-        <v>1678</v>
+        <v>1549</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>59</v>
       </c>
@@ -3569,77 +3569,77 @@
       <c r="AE28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG28" s="11" t="s">
-        <v>57</v>
+      <c r="AF28" s="11">
+        <v>220</v>
+      </c>
+      <c r="AG28" s="11">
+        <v>297</v>
       </c>
       <c r="AH28" s="11">
-        <v>220</v>
+        <v>413</v>
       </c>
       <c r="AI28" s="11">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AJ28" s="11">
-        <v>413</v>
+        <v>265</v>
       </c>
       <c r="AK28" s="11">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="AL28" s="11">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="AM28" s="11">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="AN28" s="11">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AO28" s="11">
-        <v>307</v>
+        <v>460</v>
       </c>
       <c r="AP28" s="11">
-        <v>245</v>
+        <v>352</v>
       </c>
       <c r="AQ28" s="11">
-        <v>460</v>
+        <v>274</v>
       </c>
       <c r="AR28" s="11">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="AS28" s="11">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="AT28" s="11">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="AU28" s="11">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="AV28" s="11">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="AW28" s="11">
-        <v>235</v>
+        <v>494</v>
       </c>
       <c r="AX28" s="11">
-        <v>390</v>
+        <v>273</v>
       </c>
       <c r="AY28" s="11">
-        <v>494</v>
+        <v>321</v>
       </c>
       <c r="AZ28" s="11">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="BA28" s="11">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="BB28" s="11">
-        <v>299</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>60</v>
       </c>
@@ -3728,77 +3728,77 @@
       <c r="AE29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG29" s="13" t="s">
-        <v>57</v>
+      <c r="AF29" s="13">
+        <v>130</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>195</v>
       </c>
       <c r="AH29" s="13">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="AI29" s="13">
-        <v>195</v>
+        <v>344</v>
       </c>
       <c r="AJ29" s="13">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="AK29" s="13">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="AL29" s="13">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="AM29" s="13">
-        <v>550</v>
+        <v>416</v>
       </c>
       <c r="AN29" s="13">
-        <v>191</v>
+        <v>393</v>
       </c>
       <c r="AO29" s="13">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AP29" s="13">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="AQ29" s="13">
-        <v>495</v>
+        <v>237</v>
       </c>
       <c r="AR29" s="13">
-        <v>364</v>
+        <v>238</v>
       </c>
       <c r="AS29" s="13">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="AT29" s="13">
-        <v>238</v>
+        <v>534</v>
       </c>
       <c r="AU29" s="13">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="AV29" s="13">
-        <v>534</v>
+        <v>335</v>
       </c>
       <c r="AW29" s="13">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="AX29" s="13">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="AY29" s="13">
         <v>339</v>
       </c>
       <c r="AZ29" s="13">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="BA29" s="13">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="BB29" s="13">
-        <v>227</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>61</v>
       </c>
@@ -3887,77 +3887,77 @@
       <c r="AE30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG30" s="11" t="s">
-        <v>57</v>
+      <c r="AF30" s="11">
+        <v>67</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>133</v>
       </c>
       <c r="AH30" s="11">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AI30" s="11">
+        <v>105</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>141</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>215</v>
+      </c>
+      <c r="AL30" s="11">
         <v>133</v>
       </c>
-      <c r="AJ30" s="11">
-        <v>110</v>
-      </c>
-      <c r="AK30" s="11">
-        <v>105</v>
-      </c>
-      <c r="AL30" s="11">
-        <v>141</v>
-      </c>
       <c r="AM30" s="11">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="AN30" s="11">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="AO30" s="11">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="AP30" s="11">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="AQ30" s="11">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="AR30" s="11">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="AS30" s="11">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="AT30" s="11">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AU30" s="11">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="AV30" s="11">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="AW30" s="11">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AX30" s="11">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="AY30" s="11">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="AZ30" s="11">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="BA30" s="11">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="BB30" s="11">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>62</v>
       </c>
@@ -4014,7 +4014,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>63</v>
       </c>
@@ -4151,8 +4151,8 @@
       <c r="AU32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV32" s="11">
-        <v>0</v>
+      <c r="AV32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW32" s="11" t="s">
         <v>57</v>
@@ -4160,8 +4160,8 @@
       <c r="AX32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY32" s="11">
-        <v>0</v>
+      <c r="AY32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AZ32" s="11" t="s">
         <v>57</v>
@@ -4173,7 +4173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>65</v>
       </c>
@@ -4260,11 +4260,11 @@
       <c r="AE33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AF33" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG33" s="15" t="s">
-        <v>57</v>
+      <c r="AF33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="15">
+        <v>0</v>
       </c>
       <c r="AH33" s="15">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>68</v>
       </c>
@@ -4387,9 +4387,9 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>56</v>
@@ -4488,17 +4488,17 @@
       <c r="AI35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ35" s="11">
-        <v>-17</v>
+      <c r="AJ35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL35" s="11">
-        <v>-49</v>
-      </c>
-      <c r="AM35" s="11">
-        <v>-39</v>
+      <c r="AL35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN35" s="11" t="s">
         <v>57</v>
@@ -4524,31 +4524,31 @@
       <c r="AU35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="11">
-        <v>-16</v>
+      <c r="AV35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY35" s="11">
-        <v>0</v>
+      <c r="AY35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AZ35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA35" s="11">
-        <v>-10</v>
-      </c>
-      <c r="BB35" s="11">
-        <v>0</v>
+      <c r="BA35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB35" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>56</v>
@@ -4641,17 +4641,17 @@
       <c r="AG36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH36" s="13" t="s">
-        <v>57</v>
+      <c r="AH36" s="13">
+        <v>-17</v>
       </c>
       <c r="AI36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ36" s="13" t="s">
-        <v>57</v>
+      <c r="AJ36" s="13">
+        <v>-49</v>
       </c>
       <c r="AK36" s="13">
-        <v>-1</v>
+        <v>-39</v>
       </c>
       <c r="AL36" s="13" t="s">
         <v>57</v>
@@ -4680,23 +4680,23 @@
       <c r="AT36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU36" s="13" t="s">
-        <v>57</v>
+      <c r="AU36" s="13">
+        <v>-16</v>
       </c>
       <c r="AV36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW36" s="13" t="s">
-        <v>57</v>
+      <c r="AW36" s="13">
+        <v>0</v>
       </c>
       <c r="AX36" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AY36" s="13">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AZ36" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="13">
         <v>0</v>
@@ -4705,9 +4705,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>56</v>
@@ -4800,20 +4800,20 @@
       <c r="AG37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH37" s="11">
-        <v>-19</v>
+      <c r="AH37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI37" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AJ37" s="11">
         <v>-1</v>
       </c>
-      <c r="AK37" s="11">
-        <v>-10</v>
-      </c>
-      <c r="AL37" s="11">
-        <v>0</v>
+      <c r="AJ37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM37" s="11" t="s">
         <v>57</v>
@@ -4842,14 +4842,14 @@
       <c r="AU37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV37" s="11">
-        <v>0</v>
+      <c r="AV37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX37" s="11" t="s">
-        <v>57</v>
+      <c r="AX37" s="11">
+        <v>-1</v>
       </c>
       <c r="AY37" s="11">
         <v>0</v>
@@ -4864,9 +4864,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>56</v>
@@ -4953,446 +4953,550 @@
       <c r="AE38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ38" s="13" t="s">
-        <v>57</v>
+      <c r="AF38" s="13">
+        <v>-19</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AH38" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AI38" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AJ38" s="13">
+        <v>0</v>
       </c>
       <c r="AK38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL38" s="13">
+      <c r="AL38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT38" s="13">
         <v>-4</v>
       </c>
-      <c r="AM38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP38" s="13">
+      <c r="AU38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA38" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>-4</v>
+      </c>
+      <c r="AK39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN39" s="11">
         <v>-2</v>
       </c>
-      <c r="AQ38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS38" s="13">
+      <c r="AO39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ39" s="11">
         <v>-4</v>
       </c>
-      <c r="AT38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW38" s="13">
+      <c r="AR39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU39" s="11">
         <v>-4</v>
       </c>
-      <c r="AX38" s="13">
+      <c r="AV39" s="11">
         <v>-1</v>
       </c>
-      <c r="AY38" s="13">
+      <c r="AW39" s="11">
         <v>-2</v>
       </c>
-      <c r="AZ38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB38" s="13" t="s">
-        <v>57</v>
+      <c r="AX39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA39" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="11">
+        <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="S39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="T39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="U39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="V39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="W39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH39" s="17">
-        <v>-19</v>
-      </c>
-      <c r="AI39" s="17">
-        <v>-5</v>
-      </c>
-      <c r="AJ39" s="17">
-        <v>-18</v>
-      </c>
-      <c r="AK39" s="17">
-        <v>-11</v>
-      </c>
-      <c r="AL39" s="17">
-        <v>-53</v>
-      </c>
-      <c r="AM39" s="17">
-        <v>-39</v>
-      </c>
-      <c r="AN39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="17">
-        <v>-4</v>
-      </c>
-      <c r="AT39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="17">
-        <v>-4</v>
-      </c>
-      <c r="AW39" s="17">
-        <v>-20</v>
-      </c>
-      <c r="AX39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AY39" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AZ39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="BA39" s="17">
-        <v>-10</v>
-      </c>
-      <c r="BB39" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15">
-        <v>0</v>
-      </c>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15">
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
-        <v>0</v>
-      </c>
-      <c r="I40" s="15">
-        <v>0</v>
-      </c>
-      <c r="J40" s="15">
-        <v>0</v>
-      </c>
-      <c r="K40" s="15">
-        <v>0</v>
-      </c>
-      <c r="L40" s="15">
-        <v>0</v>
-      </c>
-      <c r="M40" s="15">
-        <v>0</v>
-      </c>
-      <c r="N40" s="15">
-        <v>0</v>
-      </c>
-      <c r="O40" s="15">
-        <v>0</v>
-      </c>
-      <c r="P40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>0</v>
-      </c>
-      <c r="R40" s="15">
-        <v>0</v>
-      </c>
-      <c r="S40" s="15">
-        <v>0</v>
-      </c>
-      <c r="T40" s="15">
-        <v>0</v>
-      </c>
-      <c r="U40" s="15">
-        <v>0</v>
-      </c>
-      <c r="V40" s="15">
-        <v>0</v>
-      </c>
-      <c r="W40" s="15">
-        <v>0</v>
-      </c>
-      <c r="X40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="15">
-        <v>0</v>
+      <c r="E40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="W40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE40" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AF40" s="15">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="AG40" s="15">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AH40" s="15">
+        <v>-18</v>
+      </c>
+      <c r="AI40" s="15">
+        <v>-11</v>
+      </c>
+      <c r="AJ40" s="15">
+        <v>-53</v>
+      </c>
+      <c r="AK40" s="15">
+        <v>-39</v>
+      </c>
+      <c r="AL40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AO40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="15">
+        <v>-4</v>
+      </c>
+      <c r="AR40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="15">
+        <v>-4</v>
+      </c>
+      <c r="AU40" s="15">
+        <v>-20</v>
+      </c>
+      <c r="AV40" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AW40" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AX40" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AY40" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AZ40" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17">
+        <v>0</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0</v>
+      </c>
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0</v>
+      </c>
+      <c r="I41" s="17">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17">
+        <v>0</v>
+      </c>
+      <c r="K41" s="17">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17">
+        <v>0</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+      <c r="O41" s="17">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>0</v>
+      </c>
+      <c r="R41" s="17">
+        <v>0</v>
+      </c>
+      <c r="S41" s="17">
+        <v>0</v>
+      </c>
+      <c r="T41" s="17">
+        <v>0</v>
+      </c>
+      <c r="U41" s="17">
+        <v>0</v>
+      </c>
+      <c r="V41" s="17">
+        <v>0</v>
+      </c>
+      <c r="W41" s="17">
+        <v>0</v>
+      </c>
+      <c r="X41" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="17">
         <v>1673</v>
       </c>
-      <c r="AI40" s="15">
+      <c r="AG41" s="17">
         <v>1875</v>
       </c>
-      <c r="AJ40" s="15">
+      <c r="AH41" s="17">
         <v>2001</v>
       </c>
-      <c r="AK40" s="15">
+      <c r="AI41" s="17">
         <v>1875</v>
       </c>
-      <c r="AL40" s="15">
+      <c r="AJ41" s="17">
         <v>2233</v>
       </c>
-      <c r="AM40" s="15">
+      <c r="AK41" s="17">
         <v>2407</v>
       </c>
-      <c r="AN40" s="15">
+      <c r="AL41" s="17">
         <v>1812</v>
       </c>
-      <c r="AO40" s="15">
+      <c r="AM41" s="17">
         <v>2509</v>
       </c>
-      <c r="AP40" s="15">
+      <c r="AN41" s="17">
         <v>2767</v>
       </c>
-      <c r="AQ40" s="15">
+      <c r="AO41" s="17">
         <v>2759</v>
       </c>
-      <c r="AR40" s="15">
+      <c r="AP41" s="17">
         <v>2705</v>
       </c>
-      <c r="AS40" s="15">
+      <c r="AQ41" s="17">
         <v>2370</v>
       </c>
-      <c r="AT40" s="15">
+      <c r="AR41" s="17">
         <v>1856</v>
       </c>
-      <c r="AU40" s="15">
+      <c r="AS41" s="17">
         <v>2961</v>
       </c>
-      <c r="AV40" s="15">
-        <v>2999</v>
-      </c>
-      <c r="AW40" s="15">
+      <c r="AT41" s="17">
+        <v>2995</v>
+      </c>
+      <c r="AU41" s="17">
         <v>2581</v>
       </c>
-      <c r="AX40" s="15">
+      <c r="AV41" s="17">
         <v>2162</v>
       </c>
-      <c r="AY40" s="15">
-        <v>2623</v>
-      </c>
-      <c r="AZ40" s="15">
+      <c r="AW41" s="17">
+        <v>2622</v>
+      </c>
+      <c r="AX41" s="17">
         <v>2718</v>
       </c>
-      <c r="BA40" s="15">
+      <c r="AY41" s="17">
         <v>2693</v>
       </c>
-      <c r="BB40" s="15">
+      <c r="AZ41" s="17">
         <v>2491</v>
       </c>
+      <c r="BA41" s="17">
+        <v>2304</v>
+      </c>
+      <c r="BB41" s="17">
+        <v>2437</v>
+      </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-      <c r="AZ41" s="1"/>
-      <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
-    </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5447,7 +5551,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5502,2781 +5606,2885 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B44" s="7" t="s">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+    </row>
+    <row r="45" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K45" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="N45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="O45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="P45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="6" t="s">
+      <c r="Q45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R44" s="6" t="s">
+      <c r="R45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S44" s="6" t="s">
+      <c r="S45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T44" s="6" t="s">
+      <c r="T45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U44" s="6" t="s">
+      <c r="U45" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V44" s="6" t="s">
+      <c r="V45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W44" s="6" t="s">
+      <c r="W45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X44" s="6" t="s">
+      <c r="X45" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y44" s="6" t="s">
+      <c r="Y45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z44" s="6" t="s">
+      <c r="Z45" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA44" s="6" t="s">
+      <c r="AA45" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AB44" s="6" t="s">
+      <c r="AB45" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AC44" s="6" t="s">
+      <c r="AC45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD44" s="6" t="s">
+      <c r="AD45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AE44" s="6" t="s">
+      <c r="AE45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AF44" s="6" t="s">
+      <c r="AF45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AG44" s="6" t="s">
+      <c r="AG45" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AH44" s="6" t="s">
+      <c r="AH45" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AI44" s="6" t="s">
+      <c r="AI45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AJ44" s="6" t="s">
+      <c r="AJ45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AK44" s="6" t="s">
+      <c r="AK45" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AL44" s="6" t="s">
+      <c r="AL45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM44" s="6" t="s">
+      <c r="AM45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN44" s="6" t="s">
+      <c r="AN45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AO44" s="6" t="s">
+      <c r="AO45" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AP44" s="6" t="s">
+      <c r="AP45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AQ44" s="6" t="s">
+      <c r="AQ45" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AR44" s="6" t="s">
+      <c r="AR45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AS44" s="6" t="s">
+      <c r="AS45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AT44" s="6" t="s">
+      <c r="AT45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU44" s="6" t="s">
+      <c r="AU45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AV44" s="6" t="s">
+      <c r="AV45" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AW44" s="6" t="s">
+      <c r="AW45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AX44" s="6" t="s">
+      <c r="AX45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AY44" s="6" t="s">
+      <c r="AY45" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AZ44" s="6" t="s">
+      <c r="AZ45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BA44" s="6" t="s">
+      <c r="BA45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BB44" s="6" t="s">
+      <c r="BB45" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="1"/>
-      <c r="AM45" s="1"/>
-      <c r="AN45" s="1"/>
-      <c r="AO45" s="1"/>
-      <c r="AP45" s="1"/>
-      <c r="AQ45" s="1"/>
-      <c r="AR45" s="1"/>
-      <c r="AS45" s="1"/>
-      <c r="AT45" s="1"/>
-      <c r="AU45" s="1"/>
-      <c r="AV45" s="1"/>
-      <c r="AW45" s="1"/>
-      <c r="AX45" s="1"/>
-      <c r="AY45" s="1"/>
-      <c r="AZ45" s="1"/>
-      <c r="BA45" s="1"/>
-      <c r="BB45" s="1"/>
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="9"/>
-      <c r="AL46" s="9"/>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9"/>
-      <c r="AO46" s="9"/>
-      <c r="AP46" s="9"/>
-      <c r="AQ46" s="9"/>
-      <c r="AR46" s="9"/>
-      <c r="AS46" s="9"/>
-      <c r="AT46" s="9"/>
-      <c r="AU46" s="9"/>
-      <c r="AV46" s="9"/>
-      <c r="AW46" s="9"/>
-      <c r="AX46" s="9"/>
-      <c r="AY46" s="9"/>
-      <c r="AZ46" s="9"/>
-      <c r="BA46" s="9"/>
-      <c r="BB46" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
+      <c r="AM47" s="9"/>
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="9"/>
+      <c r="AP47" s="9"/>
+      <c r="AQ47" s="9"/>
+      <c r="AR47" s="9"/>
+      <c r="AS47" s="9"/>
+      <c r="AT47" s="9"/>
+      <c r="AU47" s="9"/>
+      <c r="AV47" s="9"/>
+      <c r="AW47" s="9"/>
+      <c r="AX47" s="9"/>
+      <c r="AY47" s="9"/>
+      <c r="AZ47" s="9"/>
+      <c r="BA47" s="9"/>
+      <c r="BB47" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B47" s="10" t="s">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS47" s="11">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ48" s="11">
         <v>543</v>
       </c>
-      <c r="AT47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU47" s="11">
+      <c r="AR48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS48" s="11">
         <v>732</v>
       </c>
-      <c r="AV47" s="11">
+      <c r="AT48" s="11">
         <v>1363</v>
       </c>
-      <c r="AW47" s="11">
+      <c r="AU48" s="11">
         <v>1719</v>
       </c>
-      <c r="AX47" s="11">
+      <c r="AV48" s="11">
         <v>953</v>
       </c>
-      <c r="AY47" s="11">
+      <c r="AW48" s="11">
         <v>23418</v>
       </c>
-      <c r="AZ47" s="11">
+      <c r="AX48" s="11">
         <v>106660</v>
       </c>
-      <c r="BA47" s="11">
+      <c r="AY48" s="11">
         <v>153420</v>
       </c>
-      <c r="BB47" s="11">
+      <c r="AZ48" s="11">
         <v>53662</v>
       </c>
+      <c r="BA48" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="11">
+        <v>8735</v>
+      </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B48" s="12" t="s">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH48" s="13">
+      <c r="D49" s="13"/>
+      <c r="E49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF49" s="13">
         <v>736688</v>
       </c>
-      <c r="AI48" s="13">
+      <c r="AG49" s="13">
         <v>738597</v>
       </c>
-      <c r="AJ48" s="13">
+      <c r="AH49" s="13">
         <v>692457</v>
       </c>
-      <c r="AK48" s="13">
+      <c r="AI49" s="13">
         <v>655805</v>
       </c>
-      <c r="AL48" s="13">
+      <c r="AJ49" s="13">
         <v>863957</v>
       </c>
-      <c r="AM48" s="13">
+      <c r="AK49" s="13">
         <v>797093</v>
       </c>
-      <c r="AN48" s="13">
+      <c r="AL49" s="13">
         <v>721306</v>
       </c>
-      <c r="AO48" s="13">
+      <c r="AM49" s="13">
         <v>857805</v>
       </c>
-      <c r="AP48" s="13">
+      <c r="AN49" s="13">
         <v>1070846</v>
       </c>
-      <c r="AQ48" s="13">
+      <c r="AO49" s="13">
         <v>946960</v>
       </c>
-      <c r="AR48" s="13">
+      <c r="AP49" s="13">
         <v>1050579</v>
       </c>
-      <c r="AS48" s="13">
+      <c r="AQ49" s="13">
         <v>952095</v>
       </c>
-      <c r="AT48" s="13">
+      <c r="AR49" s="13">
         <v>651392</v>
       </c>
-      <c r="AU48" s="13">
+      <c r="AS49" s="13">
         <v>1158632</v>
       </c>
-      <c r="AV48" s="13">
+      <c r="AT49" s="13">
         <v>1215575</v>
       </c>
-      <c r="AW48" s="13">
+      <c r="AU49" s="13">
         <v>1246293</v>
       </c>
-      <c r="AX48" s="13">
+      <c r="AV49" s="13">
         <v>840217</v>
       </c>
-      <c r="AY48" s="13">
+      <c r="AW49" s="13">
         <v>1376641</v>
       </c>
-      <c r="AZ48" s="13">
+      <c r="AX49" s="13">
         <v>1322155</v>
       </c>
-      <c r="BA48" s="13">
+      <c r="AY49" s="13">
         <v>1181695</v>
       </c>
-      <c r="BB48" s="13">
+      <c r="AZ49" s="13">
         <v>1349508</v>
       </c>
+      <c r="BA49" s="13">
+        <v>1077789</v>
+      </c>
+      <c r="BB49" s="13">
+        <v>1125773</v>
+      </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B49" s="10" t="s">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH49" s="11">
+      <c r="D50" s="11"/>
+      <c r="E50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF50" s="11">
         <v>129795</v>
       </c>
-      <c r="AI49" s="11">
+      <c r="AG50" s="11">
         <v>223254</v>
       </c>
-      <c r="AJ49" s="11">
+      <c r="AH50" s="11">
         <v>262005</v>
       </c>
-      <c r="AK49" s="11">
+      <c r="AI50" s="11">
         <v>177138</v>
       </c>
-      <c r="AL49" s="11">
+      <c r="AJ50" s="11">
         <v>160027</v>
       </c>
-      <c r="AM49" s="11">
+      <c r="AK50" s="11">
         <v>151050</v>
       </c>
-      <c r="AN49" s="11">
+      <c r="AL50" s="11">
         <v>139315</v>
       </c>
-      <c r="AO49" s="11">
+      <c r="AM50" s="11">
         <v>192822</v>
       </c>
-      <c r="AP49" s="11">
+      <c r="AN50" s="11">
         <v>162684</v>
       </c>
-      <c r="AQ49" s="11">
+      <c r="AO50" s="11">
         <v>393042</v>
       </c>
-      <c r="AR49" s="11">
+      <c r="AP50" s="11">
         <v>274605</v>
       </c>
-      <c r="AS49" s="11">
+      <c r="AQ50" s="11">
         <v>207194</v>
       </c>
-      <c r="AT49" s="11">
+      <c r="AR50" s="11">
         <v>196161</v>
       </c>
-      <c r="AU49" s="11">
+      <c r="AS50" s="11">
         <v>237024</v>
       </c>
-      <c r="AV49" s="11">
+      <c r="AT50" s="11">
         <v>246749</v>
       </c>
-      <c r="AW49" s="11">
+      <c r="AU50" s="11">
         <v>186074</v>
       </c>
-      <c r="AX49" s="11">
+      <c r="AV50" s="11">
         <v>327156</v>
       </c>
-      <c r="AY49" s="11">
+      <c r="AW50" s="11">
         <v>438184</v>
       </c>
-      <c r="AZ49" s="11">
+      <c r="AX50" s="11">
         <v>239781</v>
       </c>
-      <c r="BA49" s="11">
+      <c r="AY50" s="11">
         <v>300545</v>
       </c>
-      <c r="BB49" s="11">
+      <c r="AZ50" s="11">
         <v>275585</v>
       </c>
+      <c r="BA50" s="11">
+        <v>251437</v>
+      </c>
+      <c r="BB50" s="11">
+        <v>359879</v>
+      </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B50" s="12" t="s">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH50" s="13">
+      <c r="D51" s="13"/>
+      <c r="E51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF51" s="13">
         <v>72515</v>
       </c>
-      <c r="AI50" s="13">
+      <c r="AG51" s="13">
         <v>104015</v>
       </c>
-      <c r="AJ50" s="13">
+      <c r="AH51" s="13">
         <v>168122</v>
       </c>
-      <c r="AK50" s="13">
+      <c r="AI51" s="13">
         <v>172882</v>
       </c>
-      <c r="AL50" s="13">
+      <c r="AJ51" s="13">
         <v>139314</v>
       </c>
-      <c r="AM50" s="13">
+      <c r="AK51" s="13">
         <v>304424</v>
       </c>
-      <c r="AN50" s="13">
+      <c r="AL51" s="13">
         <v>105707</v>
       </c>
-      <c r="AO50" s="13">
+      <c r="AM51" s="13">
         <v>230849</v>
       </c>
-      <c r="AP50" s="13">
+      <c r="AN51" s="13">
         <v>236408</v>
       </c>
-      <c r="AQ50" s="13">
+      <c r="AO51" s="13">
         <v>311207</v>
       </c>
-      <c r="AR50" s="13">
+      <c r="AP51" s="13">
         <v>230217</v>
       </c>
-      <c r="AS50" s="13">
+      <c r="AQ51" s="13">
         <v>237837</v>
       </c>
-      <c r="AT50" s="13">
+      <c r="AR51" s="13">
         <v>166812</v>
       </c>
-      <c r="AU50" s="13">
+      <c r="AS51" s="13">
         <v>129350</v>
       </c>
-      <c r="AV50" s="13">
+      <c r="AT51" s="13">
         <v>381616</v>
       </c>
-      <c r="AW50" s="13">
+      <c r="AU51" s="13">
         <v>208671</v>
       </c>
-      <c r="AX50" s="13">
+      <c r="AV51" s="13">
         <v>246905</v>
       </c>
-      <c r="AY50" s="13">
+      <c r="AW51" s="13">
         <v>249497</v>
       </c>
-      <c r="AZ50" s="13">
+      <c r="AX51" s="13">
         <v>212591</v>
       </c>
-      <c r="BA50" s="13">
+      <c r="AY51" s="13">
         <v>260553</v>
       </c>
-      <c r="BB50" s="13">
+      <c r="AZ51" s="13">
         <v>184864</v>
       </c>
+      <c r="BA51" s="13">
+        <v>327008</v>
+      </c>
+      <c r="BB51" s="13">
+        <v>322541</v>
+      </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B51" s="10" t="s">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH51" s="11">
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF52" s="11">
         <v>31449</v>
       </c>
-      <c r="AI51" s="11">
+      <c r="AG52" s="11">
         <v>63430</v>
       </c>
-      <c r="AJ51" s="11">
+      <c r="AH52" s="11">
         <v>48907</v>
       </c>
-      <c r="AK51" s="11">
+      <c r="AI52" s="11">
         <v>48217</v>
       </c>
-      <c r="AL51" s="11">
+      <c r="AJ52" s="11">
         <v>66774</v>
       </c>
-      <c r="AM51" s="11">
+      <c r="AK52" s="11">
         <v>103732</v>
       </c>
-      <c r="AN51" s="11">
+      <c r="AL52" s="11">
         <v>63874</v>
       </c>
-      <c r="AO51" s="11">
+      <c r="AM52" s="11">
         <v>126152</v>
       </c>
-      <c r="AP51" s="11">
+      <c r="AN52" s="11">
         <v>108545</v>
       </c>
-      <c r="AQ51" s="11">
+      <c r="AO52" s="11">
         <v>60838</v>
       </c>
-      <c r="AR51" s="11">
+      <c r="AP52" s="11">
         <v>64510</v>
       </c>
-      <c r="AS51" s="11">
+      <c r="AQ52" s="11">
         <v>69371</v>
       </c>
-      <c r="AT51" s="11">
+      <c r="AR52" s="11">
         <v>89761</v>
       </c>
-      <c r="AU51" s="11">
+      <c r="AS52" s="11">
         <v>147625</v>
       </c>
-      <c r="AV51" s="11">
+      <c r="AT52" s="11">
         <v>98329</v>
       </c>
-      <c r="AW51" s="11">
+      <c r="AU52" s="11">
         <v>107721</v>
       </c>
-      <c r="AX51" s="11">
+      <c r="AV52" s="11">
         <v>125885</v>
       </c>
-      <c r="AY51" s="11">
-        <v>117835</v>
-      </c>
-      <c r="AZ51" s="11">
+      <c r="AW52" s="11">
+        <v>117834</v>
+      </c>
+      <c r="AX52" s="11">
         <v>93364</v>
       </c>
-      <c r="BA51" s="11">
+      <c r="AY52" s="11">
         <v>143701</v>
       </c>
-      <c r="BB51" s="11">
+      <c r="AZ52" s="11">
         <v>157227</v>
       </c>
+      <c r="BA52" s="11">
+        <v>130552</v>
+      </c>
+      <c r="BB52" s="11">
+        <v>131277</v>
+      </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="9"/>
-      <c r="AI52" s="9"/>
-      <c r="AJ52" s="9"/>
-      <c r="AK52" s="9"/>
-      <c r="AL52" s="9"/>
-      <c r="AM52" s="9"/>
-      <c r="AN52" s="9"/>
-      <c r="AO52" s="9"/>
-      <c r="AP52" s="9"/>
-      <c r="AQ52" s="9"/>
-      <c r="AR52" s="9"/>
-      <c r="AS52" s="9"/>
-      <c r="AT52" s="9"/>
-      <c r="AU52" s="9"/>
-      <c r="AV52" s="9"/>
-      <c r="AW52" s="9"/>
-      <c r="AX52" s="9"/>
-      <c r="AY52" s="9"/>
-      <c r="AZ52" s="9"/>
-      <c r="BA52" s="9"/>
-      <c r="BB52" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="9"/>
+      <c r="AL53" s="9"/>
+      <c r="AM53" s="9"/>
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="9"/>
+      <c r="AP53" s="9"/>
+      <c r="AQ53" s="9"/>
+      <c r="AR53" s="9"/>
+      <c r="AS53" s="9"/>
+      <c r="AT53" s="9"/>
+      <c r="AU53" s="9"/>
+      <c r="AV53" s="9"/>
+      <c r="AW53" s="9"/>
+      <c r="AX53" s="9"/>
+      <c r="AY53" s="9"/>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="9"/>
+      <c r="BB53" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B53" s="10" t="s">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS53" s="11">
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ54" s="11">
         <v>1017257</v>
       </c>
-      <c r="AT53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ53" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA53" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB53" s="11">
-        <v>0</v>
+      <c r="AR54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB54" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B54" s="14" t="s">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="O54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="S54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="T54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="V54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AS54" s="15">
+      <c r="D55" s="15"/>
+      <c r="E55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="R55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="W55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="15">
         <v>1017257</v>
       </c>
-      <c r="AT54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AZ54" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA54" s="15">
-        <v>0</v>
-      </c>
-      <c r="BB54" s="15">
+      <c r="AR55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AZ55" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA55" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB55" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B55" s="8" t="s">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="9"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
-      <c r="AG55" s="9"/>
-      <c r="AH55" s="9"/>
-      <c r="AI55" s="9"/>
-      <c r="AJ55" s="9"/>
-      <c r="AK55" s="9"/>
-      <c r="AL55" s="9"/>
-      <c r="AM55" s="9"/>
-      <c r="AN55" s="9"/>
-      <c r="AO55" s="9"/>
-      <c r="AP55" s="9"/>
-      <c r="AQ55" s="9"/>
-      <c r="AR55" s="9"/>
-      <c r="AS55" s="9"/>
-      <c r="AT55" s="9"/>
-      <c r="AU55" s="9"/>
-      <c r="AV55" s="9"/>
-      <c r="AW55" s="9"/>
-      <c r="AX55" s="9"/>
-      <c r="AY55" s="9"/>
-      <c r="AZ55" s="9"/>
-      <c r="BA55" s="9"/>
-      <c r="BB55" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+      <c r="AM56" s="9"/>
+      <c r="AN56" s="9"/>
+      <c r="AO56" s="9"/>
+      <c r="AP56" s="9"/>
+      <c r="AQ56" s="9"/>
+      <c r="AR56" s="9"/>
+      <c r="AS56" s="9"/>
+      <c r="AT56" s="9"/>
+      <c r="AU56" s="9"/>
+      <c r="AV56" s="9"/>
+      <c r="AW56" s="9"/>
+      <c r="AX56" s="9"/>
+      <c r="AY56" s="9"/>
+      <c r="AZ56" s="9"/>
+      <c r="BA56" s="9"/>
+      <c r="BB56" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B58" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C58" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ56" s="11">
+      <c r="D58" s="13"/>
+      <c r="E58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH58" s="13">
         <v>-10941</v>
       </c>
-      <c r="AK56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL56" s="11">
+      <c r="AI58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="13">
         <v>-29518</v>
       </c>
-      <c r="AM56" s="11">
+      <c r="AK58" s="13">
         <v>-24238</v>
       </c>
-      <c r="AN56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW56" s="11">
+      <c r="AL58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="13">
         <v>-10666</v>
       </c>
-      <c r="AX56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ56" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA56" s="11">
+      <c r="AV58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="13">
         <v>-1350</v>
       </c>
-      <c r="BB56" s="11">
+      <c r="AZ58" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA58" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB58" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B57" s="12" t="s">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C59" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK57" s="13">
+      <c r="D59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI59" s="11">
         <v>-177</v>
       </c>
-      <c r="AL57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ57" s="13">
+      <c r="AJ59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX59" s="11">
         <v>-20</v>
       </c>
-      <c r="BA57" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB57" s="13">
+      <c r="AY59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA59" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB59" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B58" s="10" t="s">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B60" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C60" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH58" s="11">
+      <c r="D60" s="13"/>
+      <c r="E60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF60" s="13">
         <v>-8492</v>
       </c>
-      <c r="AI58" s="11">
+      <c r="AG60" s="13">
         <v>-2601</v>
       </c>
-      <c r="AJ58" s="11">
+      <c r="AH60" s="13">
         <v>-91</v>
       </c>
-      <c r="AK58" s="11">
+      <c r="AI60" s="13">
         <v>-5950</v>
       </c>
-      <c r="AL58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ58" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA58" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB58" s="11">
+      <c r="AJ60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT60" s="13">
+        <v>-2190</v>
+      </c>
+      <c r="AU60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA60" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB60" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B59" s="12" t="s">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL59" s="13">
+      <c r="D61" s="11"/>
+      <c r="E61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="11">
         <v>-2019</v>
       </c>
-      <c r="AM59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP59" s="13">
+      <c r="AK61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="11">
         <v>-1032</v>
       </c>
-      <c r="AQ59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS59" s="13">
+      <c r="AO61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="11">
         <v>-2104</v>
       </c>
-      <c r="AT59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW59" s="13">
+      <c r="AR61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU61" s="11">
         <v>-2515</v>
       </c>
-      <c r="AX59" s="13">
+      <c r="AV61" s="11">
         <v>-391</v>
       </c>
-      <c r="AY59" s="13">
+      <c r="AW61" s="11">
         <v>-1076</v>
       </c>
-      <c r="AZ59" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA59" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB59" s="13">
-        <v>0</v>
+      <c r="AX61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ61" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA61" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB61" s="11">
+        <v>-226</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B60" s="16" t="s">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B62" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C62" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="O60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="S60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="T60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="U60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="V60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="W60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH60" s="17">
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="R62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="T62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="W62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF62" s="15">
         <v>-8492</v>
       </c>
-      <c r="AI60" s="17">
+      <c r="AG62" s="15">
         <v>-2601</v>
       </c>
-      <c r="AJ60" s="17">
+      <c r="AH62" s="15">
         <v>-11032</v>
       </c>
-      <c r="AK60" s="17">
+      <c r="AI62" s="15">
         <v>-6127</v>
       </c>
-      <c r="AL60" s="17">
+      <c r="AJ62" s="15">
         <v>-31537</v>
       </c>
-      <c r="AM60" s="17">
+      <c r="AK62" s="15">
         <v>-24238</v>
       </c>
-      <c r="AN60" s="17">
-        <v>0</v>
-      </c>
-      <c r="AO60" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP60" s="17">
+      <c r="AL62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="15">
         <v>-1032</v>
       </c>
-      <c r="AQ60" s="17">
-        <v>0</v>
-      </c>
-      <c r="AR60" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="17">
+      <c r="AO62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="15">
         <v>-2104</v>
       </c>
-      <c r="AT60" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU60" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV60" s="17">
+      <c r="AR62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT62" s="15">
         <v>-2190</v>
       </c>
-      <c r="AW60" s="17">
+      <c r="AU62" s="15">
         <v>-13181</v>
       </c>
-      <c r="AX60" s="17">
+      <c r="AV62" s="15">
         <v>-391</v>
       </c>
-      <c r="AY60" s="17">
+      <c r="AW62" s="15">
         <v>-1076</v>
       </c>
-      <c r="AZ60" s="17">
+      <c r="AX62" s="15">
         <v>-20</v>
       </c>
-      <c r="BA60" s="17">
+      <c r="AY62" s="15">
         <v>-1350</v>
       </c>
-      <c r="BB60" s="17">
-        <v>0</v>
+      <c r="AZ62" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA62" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB62" s="15">
+        <v>-226</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B61" s="8" t="s">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="9"/>
-      <c r="AF61" s="9"/>
-      <c r="AG61" s="9"/>
-      <c r="AH61" s="9"/>
-      <c r="AI61" s="9"/>
-      <c r="AJ61" s="9"/>
-      <c r="AK61" s="9"/>
-      <c r="AL61" s="9"/>
-      <c r="AM61" s="9"/>
-      <c r="AN61" s="9"/>
-      <c r="AO61" s="9"/>
-      <c r="AP61" s="9"/>
-      <c r="AQ61" s="9"/>
-      <c r="AR61" s="9"/>
-      <c r="AS61" s="9"/>
-      <c r="AT61" s="9"/>
-      <c r="AU61" s="9"/>
-      <c r="AV61" s="9"/>
-      <c r="AW61" s="9"/>
-      <c r="AX61" s="9"/>
-      <c r="AY61" s="9"/>
-      <c r="AZ61" s="9"/>
-      <c r="BA61" s="9"/>
-      <c r="BB61" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
+      <c r="AM63" s="9"/>
+      <c r="AN63" s="9"/>
+      <c r="AO63" s="9"/>
+      <c r="AP63" s="9"/>
+      <c r="AQ63" s="9"/>
+      <c r="AR63" s="9"/>
+      <c r="AS63" s="9"/>
+      <c r="AT63" s="9"/>
+      <c r="AU63" s="9"/>
+      <c r="AV63" s="9"/>
+      <c r="AW63" s="9"/>
+      <c r="AX63" s="9"/>
+      <c r="AY63" s="9"/>
+      <c r="AZ63" s="9"/>
+      <c r="BA63" s="9"/>
+      <c r="BB63" s="9"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B62" s="10" t="s">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH62" s="11">
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF64" s="11">
         <v>-1667</v>
       </c>
-      <c r="AI62" s="11">
+      <c r="AG64" s="11">
         <v>-2094</v>
       </c>
-      <c r="AJ62" s="11">
+      <c r="AH64" s="11">
         <v>-4779</v>
       </c>
-      <c r="AK62" s="11">
+      <c r="AI64" s="11">
         <v>-5947</v>
       </c>
-      <c r="AL62" s="11">
+      <c r="AJ64" s="11">
         <v>-27148</v>
       </c>
-      <c r="AM62" s="11">
+      <c r="AK64" s="11">
         <v>-54419</v>
       </c>
-      <c r="AN62" s="11">
+      <c r="AL64" s="11">
         <v>-45778</v>
       </c>
-      <c r="AO62" s="11">
+      <c r="AM64" s="11">
         <v>-10506</v>
       </c>
-      <c r="AP62" s="11">
+      <c r="AN64" s="11">
         <v>-27326</v>
       </c>
-      <c r="AQ62" s="11">
+      <c r="AO64" s="11">
         <v>-66610</v>
       </c>
-      <c r="AR62" s="11">
+      <c r="AP64" s="11">
         <v>-107832</v>
       </c>
-      <c r="AS62" s="11">
+      <c r="AQ64" s="11">
         <v>-92389</v>
       </c>
-      <c r="AT62" s="11">
+      <c r="AR64" s="11">
         <v>-66891</v>
       </c>
-      <c r="AU62" s="11">
+      <c r="AS64" s="11">
         <v>-40112</v>
       </c>
-      <c r="AV62" s="11">
+      <c r="AT64" s="11">
         <v>-8036</v>
       </c>
-      <c r="AW62" s="11">
+      <c r="AU64" s="11">
         <v>-8348</v>
       </c>
-      <c r="AX62" s="11">
+      <c r="AV64" s="11">
         <v>-32421</v>
       </c>
-      <c r="AY62" s="11">
+      <c r="AW64" s="11">
         <v>-50536</v>
       </c>
-      <c r="AZ62" s="11">
+      <c r="AX64" s="11">
         <v>-29093</v>
       </c>
-      <c r="BA62" s="11">
+      <c r="AY64" s="11">
         <v>-21147</v>
       </c>
-      <c r="BB62" s="11">
+      <c r="AZ64" s="11">
         <v>-9379</v>
       </c>
+      <c r="BA64" s="11">
+        <v>-21304</v>
+      </c>
+      <c r="BB64" s="11">
+        <v>-21177</v>
+      </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B65" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15">
-        <v>0</v>
-      </c>
-      <c r="F63" s="15">
-        <v>0</v>
-      </c>
-      <c r="G63" s="15">
-        <v>0</v>
-      </c>
-      <c r="H63" s="15">
-        <v>0</v>
-      </c>
-      <c r="I63" s="15">
-        <v>0</v>
-      </c>
-      <c r="J63" s="15">
-        <v>0</v>
-      </c>
-      <c r="K63" s="15">
-        <v>0</v>
-      </c>
-      <c r="L63" s="15">
-        <v>0</v>
-      </c>
-      <c r="M63" s="15">
-        <v>0</v>
-      </c>
-      <c r="N63" s="15">
-        <v>0</v>
-      </c>
-      <c r="O63" s="15">
-        <v>0</v>
-      </c>
-      <c r="P63" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="15">
-        <v>0</v>
-      </c>
-      <c r="R63" s="15">
-        <v>0</v>
-      </c>
-      <c r="S63" s="15">
-        <v>0</v>
-      </c>
-      <c r="T63" s="15">
-        <v>0</v>
-      </c>
-      <c r="U63" s="15">
-        <v>0</v>
-      </c>
-      <c r="V63" s="15">
-        <v>0</v>
-      </c>
-      <c r="W63" s="15">
-        <v>0</v>
-      </c>
-      <c r="X63" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="15">
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15">
+        <v>0</v>
+      </c>
+      <c r="F65" s="15">
+        <v>0</v>
+      </c>
+      <c r="G65" s="15">
+        <v>0</v>
+      </c>
+      <c r="H65" s="15">
+        <v>0</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0</v>
+      </c>
+      <c r="J65" s="15">
+        <v>0</v>
+      </c>
+      <c r="K65" s="15">
+        <v>0</v>
+      </c>
+      <c r="L65" s="15">
+        <v>0</v>
+      </c>
+      <c r="M65" s="15">
+        <v>0</v>
+      </c>
+      <c r="N65" s="15">
+        <v>0</v>
+      </c>
+      <c r="O65" s="15">
+        <v>0</v>
+      </c>
+      <c r="P65" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="15">
+        <v>0</v>
+      </c>
+      <c r="R65" s="15">
+        <v>0</v>
+      </c>
+      <c r="S65" s="15">
+        <v>0</v>
+      </c>
+      <c r="T65" s="15">
+        <v>0</v>
+      </c>
+      <c r="U65" s="15">
+        <v>0</v>
+      </c>
+      <c r="V65" s="15">
+        <v>0</v>
+      </c>
+      <c r="W65" s="15">
+        <v>0</v>
+      </c>
+      <c r="X65" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="15">
         <v>960288</v>
       </c>
-      <c r="AI63" s="15">
+      <c r="AG65" s="15">
         <v>1124601</v>
       </c>
-      <c r="AJ63" s="15">
+      <c r="AH65" s="15">
         <v>1155680</v>
       </c>
-      <c r="AK63" s="15">
+      <c r="AI65" s="15">
         <v>1041968</v>
       </c>
-      <c r="AL63" s="15">
+      <c r="AJ65" s="15">
         <v>1171387</v>
       </c>
-      <c r="AM63" s="15">
+      <c r="AK65" s="15">
         <v>1277642</v>
       </c>
-      <c r="AN63" s="15">
+      <c r="AL65" s="15">
         <v>984424</v>
       </c>
-      <c r="AO63" s="15">
+      <c r="AM65" s="15">
         <v>1397122</v>
       </c>
-      <c r="AP63" s="15">
+      <c r="AN65" s="15">
         <v>1550125</v>
       </c>
-      <c r="AQ63" s="15">
+      <c r="AO65" s="15">
         <v>1645437</v>
       </c>
-      <c r="AR63" s="15">
+      <c r="AP65" s="15">
         <v>1512079</v>
       </c>
-      <c r="AS63" s="15">
+      <c r="AQ65" s="15">
         <v>2389804</v>
       </c>
-      <c r="AT63" s="15">
+      <c r="AR65" s="15">
         <v>1037235</v>
       </c>
-      <c r="AU63" s="15">
+      <c r="AS65" s="15">
         <v>1633251</v>
       </c>
-      <c r="AV63" s="15">
-        <v>1935596</v>
-      </c>
-      <c r="AW63" s="15">
+      <c r="AT65" s="15">
+        <v>1933406</v>
+      </c>
+      <c r="AU65" s="15">
         <v>1728949</v>
       </c>
-      <c r="AX63" s="15">
+      <c r="AV65" s="15">
         <v>1508304</v>
       </c>
-      <c r="AY63" s="15">
-        <v>2153963</v>
-      </c>
-      <c r="AZ63" s="15">
+      <c r="AW65" s="15">
+        <v>2153962</v>
+      </c>
+      <c r="AX65" s="15">
         <v>1945438</v>
       </c>
-      <c r="BA63" s="15">
+      <c r="AY65" s="15">
         <v>2017417</v>
       </c>
-      <c r="BB63" s="15">
+      <c r="AZ65" s="15">
         <v>2011467</v>
       </c>
+      <c r="BA65" s="15">
+        <v>1765482</v>
+      </c>
+      <c r="BB65" s="15">
+        <v>1926802</v>
+      </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="1"/>
-      <c r="AO64" s="1"/>
-      <c r="AP64" s="1"/>
-      <c r="AQ64" s="1"/>
-      <c r="AR64" s="1"/>
-      <c r="AS64" s="1"/>
-      <c r="AT64" s="1"/>
-      <c r="AU64" s="1"/>
-      <c r="AV64" s="1"/>
-      <c r="AW64" s="1"/>
-      <c r="AX64" s="1"/>
-      <c r="AY64" s="1"/>
-      <c r="AZ64" s="1"/>
-      <c r="BA64" s="1"/>
-      <c r="BB64" s="1"/>
-    </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AO65" s="1"/>
-      <c r="AP65" s="1"/>
-      <c r="AQ65" s="1"/>
-      <c r="AR65" s="1"/>
-      <c r="AS65" s="1"/>
-      <c r="AT65" s="1"/>
-      <c r="AU65" s="1"/>
-      <c r="AV65" s="1"/>
-      <c r="AW65" s="1"/>
-      <c r="AX65" s="1"/>
-      <c r="AY65" s="1"/>
-      <c r="AZ65" s="1"/>
-      <c r="BA65" s="1"/>
-      <c r="BB65" s="1"/>
-    </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8331,164 +8539,62 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B67" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N67" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P67" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R67" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S67" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T67" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="V67" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="W67" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="X67" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y67" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z67" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA67" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB67" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD67" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF67" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG67" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH67" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI67" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK67" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM67" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN67" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO67" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP67" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ67" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR67" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS67" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT67" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU67" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV67" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW67" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX67" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY67" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ67" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA67" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB67" s="6" t="s">
-        <v>54</v>
-      </c>
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -8543,384 +8649,278 @@
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B69" s="8" t="s">
+    <row r="69" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA69" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB69" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC69" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD69" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG69" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH69" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI69" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK69" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL69" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN69" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO69" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS69" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT69" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU69" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV69" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW69" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX69" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY69" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ69" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA69" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB69" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+    </row>
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="9"/>
-      <c r="AG69" s="9"/>
-      <c r="AH69" s="9"/>
-      <c r="AI69" s="9"/>
-      <c r="AJ69" s="9"/>
-      <c r="AK69" s="9"/>
-      <c r="AL69" s="9"/>
-      <c r="AM69" s="9"/>
-      <c r="AN69" s="9"/>
-      <c r="AO69" s="9"/>
-      <c r="AP69" s="9"/>
-      <c r="AQ69" s="9"/>
-      <c r="AR69" s="9"/>
-      <c r="AS69" s="9"/>
-      <c r="AT69" s="9"/>
-      <c r="AU69" s="9"/>
-      <c r="AV69" s="9"/>
-      <c r="AW69" s="9"/>
-      <c r="AX69" s="9"/>
-      <c r="AY69" s="9"/>
-      <c r="AZ69" s="9"/>
-      <c r="BA69" s="9"/>
-      <c r="BB69" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="9"/>
+      <c r="AJ71" s="9"/>
+      <c r="AK71" s="9"/>
+      <c r="AL71" s="9"/>
+      <c r="AM71" s="9"/>
+      <c r="AN71" s="9"/>
+      <c r="AO71" s="9"/>
+      <c r="AP71" s="9"/>
+      <c r="AQ71" s="9"/>
+      <c r="AR71" s="9"/>
+      <c r="AS71" s="9"/>
+      <c r="AT71" s="9"/>
+      <c r="AU71" s="9"/>
+      <c r="AV71" s="9"/>
+      <c r="AW71" s="9"/>
+      <c r="AX71" s="9"/>
+      <c r="AY71" s="9"/>
+      <c r="AZ71" s="9"/>
+      <c r="BA71" s="9"/>
+      <c r="BB71" s="9"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B70" s="10" t="s">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS70" s="11">
-        <v>543000000</v>
-      </c>
-      <c r="AT70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU70" s="11">
-        <v>732000000</v>
-      </c>
-      <c r="AV70" s="11">
-        <v>454333333</v>
-      </c>
-      <c r="AW70" s="11">
-        <v>859500000</v>
-      </c>
-      <c r="AX70" s="11">
-        <v>953000000</v>
-      </c>
-      <c r="AY70" s="11">
-        <v>755419355</v>
-      </c>
-      <c r="AZ70" s="11">
-        <v>740694444</v>
-      </c>
-      <c r="BA70" s="11">
-        <v>752058824</v>
-      </c>
-      <c r="BB70" s="11">
-        <v>777710145</v>
-      </c>
-    </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B71" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH71" s="13">
-        <v>577794510</v>
-      </c>
-      <c r="AI71" s="13">
-        <v>588523506</v>
-      </c>
-      <c r="AJ71" s="13">
-        <v>595918244</v>
-      </c>
-      <c r="AK71" s="13">
-        <v>578821712</v>
-      </c>
-      <c r="AL71" s="13">
-        <v>535621203</v>
-      </c>
-      <c r="AM71" s="13">
-        <v>555465505</v>
-      </c>
-      <c r="AN71" s="13">
-        <v>565730196</v>
-      </c>
-      <c r="AO71" s="13">
-        <v>561390707</v>
-      </c>
-      <c r="AP71" s="13">
-        <v>561240042</v>
-      </c>
-      <c r="AQ71" s="13">
-        <v>564338498</v>
-      </c>
-      <c r="AR71" s="13">
-        <v>566349865</v>
-      </c>
-      <c r="AS71" s="13">
-        <v>551619351</v>
-      </c>
-      <c r="AT71" s="13">
-        <v>550162162</v>
-      </c>
-      <c r="AU71" s="13">
-        <v>539149372</v>
-      </c>
-      <c r="AV71" s="13">
-        <v>622095701</v>
-      </c>
-      <c r="AW71" s="13">
-        <v>667180407</v>
-      </c>
-      <c r="AX71" s="13">
-        <v>660547956</v>
-      </c>
-      <c r="AY71" s="13">
-        <v>877959821</v>
-      </c>
-      <c r="AZ71" s="13">
-        <v>708930295</v>
-      </c>
-      <c r="BA71" s="13">
-        <v>709726727</v>
-      </c>
-      <c r="BB71" s="13">
-        <v>804235995</v>
-      </c>
-    </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B72" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>77</v>
@@ -9013,73 +9013,73 @@
       <c r="AG72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH72" s="11">
-        <v>589977273</v>
-      </c>
-      <c r="AI72" s="11">
-        <v>751696970</v>
-      </c>
-      <c r="AJ72" s="11">
-        <v>634394673</v>
-      </c>
-      <c r="AK72" s="11">
-        <v>582690789</v>
-      </c>
-      <c r="AL72" s="11">
-        <v>603875472</v>
-      </c>
-      <c r="AM72" s="11">
-        <v>614024390</v>
-      </c>
-      <c r="AN72" s="11">
-        <v>654061033</v>
-      </c>
-      <c r="AO72" s="11">
-        <v>628084691</v>
-      </c>
-      <c r="AP72" s="11">
-        <v>664016327</v>
+      <c r="AH72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP72" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ72" s="11">
-        <v>854439130</v>
-      </c>
-      <c r="AR72" s="11">
-        <v>780127841</v>
+        <v>543000000</v>
+      </c>
+      <c r="AR72" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS72" s="11">
-        <v>756182482</v>
+        <v>732000000</v>
       </c>
       <c r="AT72" s="11">
-        <v>778416667</v>
+        <v>454333333</v>
       </c>
       <c r="AU72" s="11">
-        <v>754853503</v>
+        <v>859500000</v>
       </c>
       <c r="AV72" s="11">
-        <v>783330159</v>
+        <v>953000000</v>
       </c>
       <c r="AW72" s="11">
-        <v>791804255</v>
+        <v>755419355</v>
       </c>
       <c r="AX72" s="11">
-        <v>838861538</v>
+        <v>740694444</v>
       </c>
       <c r="AY72" s="11">
-        <v>887012146</v>
+        <v>752058824</v>
       </c>
       <c r="AZ72" s="11">
-        <v>878318681</v>
-      </c>
-      <c r="BA72" s="11">
-        <v>936277259</v>
+        <v>777710145</v>
+      </c>
+      <c r="BA72" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BB72" s="11">
-        <v>921688963</v>
+        <v>727916667</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>77</v>
@@ -9166,79 +9166,79 @@
       <c r="AE73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG73" s="13" t="s">
-        <v>57</v>
+      <c r="AF73" s="13">
+        <v>577794510</v>
+      </c>
+      <c r="AG73" s="13">
+        <v>588523506</v>
       </c>
       <c r="AH73" s="13">
-        <v>557807692</v>
+        <v>595918244</v>
       </c>
       <c r="AI73" s="13">
-        <v>533410256</v>
+        <v>578821712</v>
       </c>
       <c r="AJ73" s="13">
-        <v>503359281</v>
+        <v>535621203</v>
       </c>
       <c r="AK73" s="13">
-        <v>502563953</v>
+        <v>555465505</v>
       </c>
       <c r="AL73" s="13">
-        <v>521775281</v>
+        <v>565730196</v>
       </c>
       <c r="AM73" s="13">
-        <v>553498182</v>
+        <v>561390707</v>
       </c>
       <c r="AN73" s="13">
-        <v>553439791</v>
+        <v>561240042</v>
       </c>
       <c r="AO73" s="13">
-        <v>554925481</v>
+        <v>564338498</v>
       </c>
       <c r="AP73" s="13">
-        <v>601547074</v>
+        <v>566349865</v>
       </c>
       <c r="AQ73" s="13">
-        <v>628701010</v>
+        <v>551619351</v>
       </c>
       <c r="AR73" s="13">
-        <v>632464286</v>
+        <v>550162162</v>
       </c>
       <c r="AS73" s="13">
-        <v>1003531646</v>
+        <v>539149372</v>
       </c>
       <c r="AT73" s="13">
-        <v>700890756</v>
+        <v>622095701</v>
       </c>
       <c r="AU73" s="13">
-        <v>670207254</v>
+        <v>667180407</v>
       </c>
       <c r="AV73" s="13">
-        <v>714636704</v>
+        <v>660547956</v>
       </c>
       <c r="AW73" s="13">
-        <v>717082474</v>
+        <v>877959821</v>
       </c>
       <c r="AX73" s="13">
-        <v>737029851</v>
+        <v>708930295</v>
       </c>
       <c r="AY73" s="13">
-        <v>735979351</v>
+        <v>709726727</v>
       </c>
       <c r="AZ73" s="13">
-        <v>740735192</v>
+        <v>804235995</v>
       </c>
       <c r="BA73" s="13">
-        <v>768592920</v>
+        <v>728235811</v>
       </c>
       <c r="BB73" s="13">
-        <v>814378855</v>
+        <v>726774048</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>77</v>
@@ -9325,139 +9325,241 @@
       <c r="AE74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG74" s="11" t="s">
-        <v>57</v>
+      <c r="AF74" s="11">
+        <v>589977273</v>
+      </c>
+      <c r="AG74" s="11">
+        <v>751696970</v>
       </c>
       <c r="AH74" s="11">
-        <v>469388060</v>
+        <v>634394673</v>
       </c>
       <c r="AI74" s="11">
-        <v>476917293</v>
+        <v>582690789</v>
       </c>
       <c r="AJ74" s="11">
-        <v>444609091</v>
+        <v>603875472</v>
       </c>
       <c r="AK74" s="11">
-        <v>459209524</v>
+        <v>614024390</v>
       </c>
       <c r="AL74" s="11">
-        <v>473574468</v>
+        <v>654061033</v>
       </c>
       <c r="AM74" s="11">
-        <v>482474419</v>
+        <v>628084691</v>
       </c>
       <c r="AN74" s="11">
-        <v>480255639</v>
+        <v>664016327</v>
       </c>
       <c r="AO74" s="11">
-        <v>488961240</v>
+        <v>854439130</v>
       </c>
       <c r="AP74" s="11">
-        <v>486748879</v>
+        <v>780127841</v>
       </c>
       <c r="AQ74" s="11">
-        <v>482841270</v>
+        <v>756182482</v>
       </c>
       <c r="AR74" s="11">
-        <v>481417910</v>
+        <v>778416667</v>
       </c>
       <c r="AS74" s="11">
-        <v>510080882</v>
+        <v>754853503</v>
       </c>
       <c r="AT74" s="11">
-        <v>493192308</v>
+        <v>783330159</v>
       </c>
       <c r="AU74" s="11">
-        <v>485608553</v>
+        <v>791804255</v>
       </c>
       <c r="AV74" s="11">
-        <v>509476684</v>
+        <v>838861538</v>
       </c>
       <c r="AW74" s="11">
-        <v>525468293</v>
+        <v>887012146</v>
       </c>
       <c r="AX74" s="11">
-        <v>762939394</v>
+        <v>878318681</v>
       </c>
       <c r="AY74" s="11">
-        <v>613273733</v>
+        <v>936277259</v>
       </c>
       <c r="AZ74" s="11">
-        <v>622426667</v>
+        <v>921688963</v>
       </c>
       <c r="BA74" s="11">
-        <v>825867816</v>
+        <v>924400735</v>
       </c>
       <c r="BB74" s="11">
-        <v>721224771</v>
+        <v>1013743662</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B75" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-      <c r="AA75" s="9"/>
-      <c r="AB75" s="9"/>
-      <c r="AC75" s="9"/>
-      <c r="AD75" s="9"/>
-      <c r="AE75" s="9"/>
-      <c r="AF75" s="9"/>
-      <c r="AG75" s="9"/>
-      <c r="AH75" s="9"/>
-      <c r="AI75" s="9"/>
-      <c r="AJ75" s="9"/>
-      <c r="AK75" s="9"/>
-      <c r="AL75" s="9"/>
-      <c r="AM75" s="9"/>
-      <c r="AN75" s="9"/>
-      <c r="AO75" s="9"/>
-      <c r="AP75" s="9"/>
-      <c r="AQ75" s="9"/>
-      <c r="AR75" s="9"/>
-      <c r="AS75" s="9"/>
-      <c r="AT75" s="9"/>
-      <c r="AU75" s="9"/>
-      <c r="AV75" s="9"/>
-      <c r="AW75" s="9"/>
-      <c r="AX75" s="9"/>
-      <c r="AY75" s="9"/>
-      <c r="AZ75" s="9"/>
-      <c r="BA75" s="9"/>
-      <c r="BB75" s="9"/>
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B75" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF75" s="13">
+        <v>557807692</v>
+      </c>
+      <c r="AG75" s="13">
+        <v>533410256</v>
+      </c>
+      <c r="AH75" s="13">
+        <v>503359281</v>
+      </c>
+      <c r="AI75" s="13">
+        <v>502563953</v>
+      </c>
+      <c r="AJ75" s="13">
+        <v>521775281</v>
+      </c>
+      <c r="AK75" s="13">
+        <v>553498182</v>
+      </c>
+      <c r="AL75" s="13">
+        <v>553439791</v>
+      </c>
+      <c r="AM75" s="13">
+        <v>554925481</v>
+      </c>
+      <c r="AN75" s="13">
+        <v>601547074</v>
+      </c>
+      <c r="AO75" s="13">
+        <v>628701010</v>
+      </c>
+      <c r="AP75" s="13">
+        <v>632464286</v>
+      </c>
+      <c r="AQ75" s="13">
+        <v>1003531646</v>
+      </c>
+      <c r="AR75" s="13">
+        <v>700890756</v>
+      </c>
+      <c r="AS75" s="13">
+        <v>670207254</v>
+      </c>
+      <c r="AT75" s="13">
+        <v>714636704</v>
+      </c>
+      <c r="AU75" s="13">
+        <v>717082474</v>
+      </c>
+      <c r="AV75" s="13">
+        <v>737029851</v>
+      </c>
+      <c r="AW75" s="13">
+        <v>735979351</v>
+      </c>
+      <c r="AX75" s="13">
+        <v>740735192</v>
+      </c>
+      <c r="AY75" s="13">
+        <v>768592920</v>
+      </c>
+      <c r="AZ75" s="13">
+        <v>814378855</v>
+      </c>
+      <c r="BA75" s="13">
+        <v>876697051</v>
+      </c>
+      <c r="BB75" s="13">
+        <v>913713881</v>
+      </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
@@ -9541,74 +9643,290 @@
       <c r="AE76" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR76" s="11" t="s">
-        <v>57</v>
+      <c r="AF76" s="11">
+        <v>469388060</v>
+      </c>
+      <c r="AG76" s="11">
+        <v>476917293</v>
+      </c>
+      <c r="AH76" s="11">
+        <v>444609091</v>
+      </c>
+      <c r="AI76" s="11">
+        <v>459209524</v>
+      </c>
+      <c r="AJ76" s="11">
+        <v>473574468</v>
+      </c>
+      <c r="AK76" s="11">
+        <v>482474419</v>
+      </c>
+      <c r="AL76" s="11">
+        <v>480255639</v>
+      </c>
+      <c r="AM76" s="11">
+        <v>488961240</v>
+      </c>
+      <c r="AN76" s="11">
+        <v>486748879</v>
+      </c>
+      <c r="AO76" s="11">
+        <v>482841270</v>
+      </c>
+      <c r="AP76" s="11">
+        <v>481417910</v>
+      </c>
+      <c r="AQ76" s="11">
+        <v>510080882</v>
+      </c>
+      <c r="AR76" s="11">
+        <v>493192308</v>
       </c>
       <c r="AS76" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU76" s="11" t="s">
-        <v>57</v>
+        <v>485608553</v>
+      </c>
+      <c r="AT76" s="11">
+        <v>509476684</v>
+      </c>
+      <c r="AU76" s="11">
+        <v>525468293</v>
       </c>
       <c r="AV76" s="11">
-        <v>0</v>
+        <v>762939394</v>
       </c>
       <c r="AW76" s="11">
-        <v>0</v>
+        <v>613718750</v>
       </c>
       <c r="AX76" s="11">
-        <v>0</v>
+        <v>622426667</v>
       </c>
       <c r="AY76" s="11">
-        <v>0</v>
+        <v>825867816</v>
       </c>
       <c r="AZ76" s="11">
-        <v>0</v>
+        <v>721224771</v>
       </c>
       <c r="BA76" s="11">
-        <v>0</v>
+        <v>729340782</v>
       </c>
       <c r="BB76" s="11">
-        <v>0</v>
+        <v>776786982</v>
+      </c>
+    </row>
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
+      <c r="AE77" s="9"/>
+      <c r="AF77" s="9"/>
+      <c r="AG77" s="9"/>
+      <c r="AH77" s="9"/>
+      <c r="AI77" s="9"/>
+      <c r="AJ77" s="9"/>
+      <c r="AK77" s="9"/>
+      <c r="AL77" s="9"/>
+      <c r="AM77" s="9"/>
+      <c r="AN77" s="9"/>
+      <c r="AO77" s="9"/>
+      <c r="AP77" s="9"/>
+      <c r="AQ77" s="9"/>
+      <c r="AR77" s="9"/>
+      <c r="AS77" s="9"/>
+      <c r="AT77" s="9"/>
+      <c r="AU77" s="9"/>
+      <c r="AV77" s="9"/>
+      <c r="AW77" s="9"/>
+      <c r="AX77" s="9"/>
+      <c r="AY77" s="9"/>
+      <c r="AZ77" s="9"/>
+      <c r="BA77" s="9"/>
+      <c r="BB77" s="9"/>
+    </row>
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ78" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT78" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU78" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV78" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW78" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX78" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY78" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ78" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB78" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/parta/product/monthly.xlsx
+++ b/database/industries/lastic/parta/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="80">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3351,44 +3351,44 @@
       <c r="AN11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP11" s="13" t="n">
+      <c r="AO11" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AQ11" s="13" t="s">
-        <v>57</v>
+      <c r="AP11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>80</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>143</v>
+        <v>304</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="13" t="n">
         <v>0</v>
@@ -3477,80 +3477,80 @@
       <c r="AC12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD12" s="16" t="s">
-        <v>57</v>
+      <c r="AD12" s="16" t="n">
+        <v>986</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>986</v>
+        <v>1544</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>1544</v>
+        <v>2068</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>2068</v>
+        <v>1690</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>1690</v>
+        <v>1202</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>1202</v>
+        <v>1405</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>1405</v>
+        <v>1429</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>1429</v>
+        <v>1481</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>1481</v>
+        <v>1623</v>
       </c>
       <c r="AM12" s="16" t="n">
+        <v>1628</v>
+      </c>
+      <c r="AN12" s="16" t="n">
         <v>1623</v>
       </c>
-      <c r="AN12" s="16" t="n">
-        <v>1628</v>
-      </c>
       <c r="AO12" s="16" t="n">
-        <v>1623</v>
+        <v>1338</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>1338</v>
+        <v>1193</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>1193</v>
+        <v>1760</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>1760</v>
+        <v>1743</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>1743</v>
+        <v>1725</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>1725</v>
+        <v>1474</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>1474</v>
+        <v>1606</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>1614</v>
+        <v>1453</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>1453</v>
+        <v>1618</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>1618</v>
+        <v>1471</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>1471</v>
+        <v>1550</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>1550</v>
+        <v>1385</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>1385</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,80 +3636,80 @@
       <c r="AC13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD13" s="13" t="s">
-        <v>57</v>
+      <c r="AD13" s="13" t="n">
+        <v>160</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>160</v>
+        <v>357</v>
       </c>
       <c r="AF13" s="13" t="n">
+        <v>276</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>262</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>235</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>299</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>319</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>309</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>307</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>306</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>261</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>246</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>363</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>367</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>349</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>320</v>
+      </c>
+      <c r="AU13" s="13" t="n">
         <v>357</v>
       </c>
-      <c r="AG13" s="13" t="n">
-        <v>276</v>
-      </c>
-      <c r="AH13" s="13" t="n">
-        <v>262</v>
-      </c>
-      <c r="AI13" s="13" t="n">
-        <v>235</v>
-      </c>
-      <c r="AJ13" s="13" t="n">
-        <v>299</v>
-      </c>
-      <c r="AK13" s="13" t="n">
-        <v>319</v>
-      </c>
-      <c r="AL13" s="13" t="n">
+      <c r="AV13" s="13" t="n">
+        <v>344</v>
+      </c>
+      <c r="AW13" s="13" t="n">
         <v>309</v>
       </c>
-      <c r="AM13" s="13" t="n">
-        <v>307</v>
-      </c>
-      <c r="AN13" s="13" t="n">
-        <v>306</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>300</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>261</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>246</v>
-      </c>
-      <c r="AR13" s="13" t="n">
-        <v>363</v>
-      </c>
-      <c r="AS13" s="13" t="n">
-        <v>367</v>
-      </c>
-      <c r="AT13" s="13" t="n">
-        <v>349</v>
-      </c>
-      <c r="AU13" s="13" t="n">
-        <v>320</v>
-      </c>
-      <c r="AV13" s="13" t="n">
-        <v>357</v>
-      </c>
-      <c r="AW13" s="13" t="n">
-        <v>344</v>
-      </c>
       <c r="AX13" s="13" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>321</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,80 +3795,80 @@
       <c r="AC14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD14" s="16" t="s">
-        <v>57</v>
+      <c r="AD14" s="16" t="n">
+        <v>177</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>148</v>
+        <v>586</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>586</v>
+        <v>354</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AT14" s="16" t="n">
+        <v>312</v>
+      </c>
+      <c r="AU14" s="16" t="n">
         <v>335</v>
       </c>
-      <c r="AU14" s="16" t="n">
-        <v>312</v>
-      </c>
       <c r="AV14" s="16" t="n">
+        <v>318</v>
+      </c>
+      <c r="AW14" s="16" t="n">
+        <v>291</v>
+      </c>
+      <c r="AX14" s="16" t="n">
+        <v>336</v>
+      </c>
+      <c r="AY14" s="16" t="n">
+        <v>311</v>
+      </c>
+      <c r="AZ14" s="16" t="n">
         <v>335</v>
       </c>
-      <c r="AW14" s="16" t="n">
-        <v>318</v>
-      </c>
-      <c r="AX14" s="16" t="n">
-        <v>291</v>
-      </c>
-      <c r="AY14" s="16" t="n">
-        <v>336</v>
-      </c>
-      <c r="AZ14" s="16" t="n">
-        <v>311</v>
-      </c>
       <c r="BA14" s="16" t="n">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>274</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,80 +3954,80 @@
       <c r="AC15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD15" s="13" t="s">
-        <v>57</v>
+      <c r="AD15" s="13" t="n">
+        <v>62</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="AR15" s="13" t="n">
         <v>198</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="AX15" s="13" t="n">
+        <v>196</v>
+      </c>
+      <c r="AY15" s="13" t="n">
         <v>160</v>
       </c>
-      <c r="AY15" s="13" t="n">
-        <v>196</v>
-      </c>
       <c r="AZ15" s="13" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,8 +4327,8 @@
       <c r="AC18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="18" t="s">
-        <v>57</v>
+      <c r="AD18" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AE18" s="18" t="n">
         <v>0</v>
@@ -4485,79 +4485,79 @@
         <v>0</v>
       </c>
       <c r="AD19" s="20" t="n">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="AE19" s="20" t="n">
-        <v>1385</v>
+        <v>2187</v>
       </c>
       <c r="AF19" s="20" t="n">
-        <v>2187</v>
+        <v>3135</v>
       </c>
       <c r="AG19" s="20" t="n">
-        <v>3135</v>
+        <v>2493</v>
       </c>
       <c r="AH19" s="20" t="n">
-        <v>2493</v>
+        <v>1726</v>
       </c>
       <c r="AI19" s="20" t="n">
-        <v>1726</v>
+        <v>2201</v>
       </c>
       <c r="AJ19" s="20" t="n">
-        <v>2201</v>
+        <v>2254</v>
       </c>
       <c r="AK19" s="20" t="n">
-        <v>2254</v>
+        <v>2237</v>
       </c>
       <c r="AL19" s="20" t="n">
-        <v>2237</v>
+        <v>2396</v>
       </c>
       <c r="AM19" s="20" t="n">
-        <v>2396</v>
+        <v>2412</v>
       </c>
       <c r="AN19" s="20" t="n">
-        <v>2412</v>
+        <v>2360</v>
       </c>
       <c r="AO19" s="20" t="n">
-        <v>2360</v>
+        <v>1998</v>
       </c>
       <c r="AP19" s="20" t="n">
-        <v>1998</v>
+        <v>1810</v>
       </c>
       <c r="AQ19" s="20" t="n">
-        <v>1810</v>
+        <v>2727</v>
       </c>
       <c r="AR19" s="20" t="n">
-        <v>2727</v>
+        <v>2663</v>
       </c>
       <c r="AS19" s="20" t="n">
-        <v>2663</v>
+        <v>2597</v>
       </c>
       <c r="AT19" s="20" t="n">
-        <v>2597</v>
+        <v>2288</v>
       </c>
       <c r="AU19" s="20" t="n">
-        <v>2288</v>
+        <v>2518</v>
       </c>
       <c r="AV19" s="20" t="n">
-        <v>2518</v>
+        <v>2594</v>
       </c>
       <c r="AW19" s="20" t="n">
-        <v>2594</v>
+        <v>2517</v>
       </c>
       <c r="AX19" s="20" t="n">
-        <v>2517</v>
+        <v>2473</v>
       </c>
       <c r="AY19" s="20" t="n">
-        <v>2473</v>
+        <v>2219</v>
       </c>
       <c r="AZ19" s="20" t="n">
-        <v>2219</v>
+        <v>2400</v>
       </c>
       <c r="BA19" s="20" t="n">
-        <v>2400</v>
+        <v>2127</v>
       </c>
       <c r="BB19" s="20" t="n">
-        <v>2127</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5110,47 +5110,47 @@
       <c r="AN26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP26" s="13" t="n">
+      <c r="AO26" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AQ26" s="13" t="s">
-        <v>57</v>
+      <c r="AP26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ26" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="AR26" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS26" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AS26" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT26" s="13" t="n">
-        <v>2</v>
-      </c>
       <c r="AU26" s="13" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AV26" s="13" t="n">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="AW26" s="13" t="n">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="AX26" s="13" t="n">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="AY26" s="13" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA26" s="13" t="n">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="BB26" s="13" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5236,80 +5236,80 @@
       <c r="AC27" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD27" s="16" t="s">
-        <v>57</v>
+      <c r="AD27" s="16" t="n">
+        <v>1275</v>
       </c>
       <c r="AE27" s="16" t="n">
+        <v>1255</v>
+      </c>
+      <c r="AF27" s="16" t="n">
+        <v>1162</v>
+      </c>
+      <c r="AG27" s="16" t="n">
+        <v>1133</v>
+      </c>
+      <c r="AH27" s="16" t="n">
+        <v>1613</v>
+      </c>
+      <c r="AI27" s="16" t="n">
+        <v>1435</v>
+      </c>
+      <c r="AJ27" s="16" t="n">
         <v>1275</v>
       </c>
-      <c r="AF27" s="16" t="n">
-        <v>1255</v>
-      </c>
-      <c r="AG27" s="16" t="n">
-        <v>1162</v>
-      </c>
-      <c r="AH27" s="16" t="n">
-        <v>1133</v>
-      </c>
-      <c r="AI27" s="16" t="n">
-        <v>1613</v>
-      </c>
-      <c r="AJ27" s="16" t="n">
-        <v>1435</v>
-      </c>
       <c r="AK27" s="16" t="n">
-        <v>1275</v>
+        <v>1528</v>
       </c>
       <c r="AL27" s="16" t="n">
-        <v>1528</v>
+        <v>1908</v>
       </c>
       <c r="AM27" s="16" t="n">
-        <v>1908</v>
+        <v>1678</v>
       </c>
       <c r="AN27" s="16" t="n">
+        <v>1855</v>
+      </c>
+      <c r="AO27" s="16" t="n">
+        <v>1726</v>
+      </c>
+      <c r="AP27" s="16" t="n">
+        <v>1184</v>
+      </c>
+      <c r="AQ27" s="16" t="n">
+        <v>2149</v>
+      </c>
+      <c r="AR27" s="16" t="n">
+        <v>1954</v>
+      </c>
+      <c r="AS27" s="16" t="n">
+        <v>1868</v>
+      </c>
+      <c r="AT27" s="16" t="n">
+        <v>1272</v>
+      </c>
+      <c r="AU27" s="16" t="n">
+        <v>1568</v>
+      </c>
+      <c r="AV27" s="16" t="n">
+        <v>1865</v>
+      </c>
+      <c r="AW27" s="16" t="n">
+        <v>1665</v>
+      </c>
+      <c r="AX27" s="16" t="n">
         <v>1678</v>
       </c>
-      <c r="AO27" s="16" t="n">
-        <v>1855</v>
-      </c>
-      <c r="AP27" s="16" t="n">
-        <v>1726</v>
-      </c>
-      <c r="AQ27" s="16" t="n">
-        <v>1184</v>
-      </c>
-      <c r="AR27" s="16" t="n">
-        <v>2149</v>
-      </c>
-      <c r="AS27" s="16" t="n">
-        <v>1954</v>
-      </c>
-      <c r="AT27" s="16" t="n">
-        <v>1868</v>
-      </c>
-      <c r="AU27" s="16" t="n">
-        <v>1272</v>
-      </c>
-      <c r="AV27" s="16" t="n">
-        <v>1568</v>
-      </c>
-      <c r="AW27" s="16" t="n">
-        <v>1865</v>
-      </c>
-      <c r="AX27" s="16" t="n">
-        <v>1665</v>
-      </c>
       <c r="AY27" s="16" t="n">
-        <v>1678</v>
+        <v>1480</v>
       </c>
       <c r="AZ27" s="16" t="n">
-        <v>1480</v>
+        <v>1549</v>
       </c>
       <c r="BA27" s="16" t="n">
-        <v>1549</v>
+        <v>1352</v>
       </c>
       <c r="BB27" s="16" t="n">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5395,80 +5395,80 @@
       <c r="AC28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD28" s="13" t="s">
-        <v>57</v>
+      <c r="AD28" s="13" t="n">
+        <v>220</v>
       </c>
       <c r="AE28" s="13" t="n">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="AF28" s="13" t="n">
-        <v>297</v>
+        <v>413</v>
       </c>
       <c r="AG28" s="13" t="n">
-        <v>413</v>
+        <v>304</v>
       </c>
       <c r="AH28" s="13" t="n">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="AI28" s="13" t="n">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="AK28" s="13" t="n">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="AL28" s="13" t="n">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="AM28" s="13" t="n">
-        <v>245</v>
+        <v>460</v>
       </c>
       <c r="AN28" s="13" t="n">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="AO28" s="13" t="n">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="AP28" s="13" t="n">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="AQ28" s="13" t="n">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="AR28" s="13" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AS28" s="13" t="n">
-        <v>315</v>
+        <v>235</v>
       </c>
       <c r="AT28" s="13" t="n">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="AU28" s="13" t="n">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="AV28" s="13" t="n">
-        <v>494</v>
+        <v>273</v>
       </c>
       <c r="AW28" s="13" t="n">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="AX28" s="13" t="n">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="AY28" s="13" t="n">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="AZ28" s="13" t="n">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="BA28" s="13" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="BB28" s="13" t="n">
-        <v>365</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5554,80 +5554,80 @@
       <c r="AC29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD29" s="16" t="s">
-        <v>57</v>
+      <c r="AD29" s="16" t="n">
+        <v>130</v>
       </c>
       <c r="AE29" s="16" t="n">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="AF29" s="16" t="n">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="AG29" s="16" t="n">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="AH29" s="16" t="n">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="AI29" s="16" t="n">
-        <v>267</v>
+        <v>550</v>
       </c>
       <c r="AJ29" s="16" t="n">
-        <v>550</v>
+        <v>191</v>
       </c>
       <c r="AK29" s="16" t="n">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="AL29" s="16" t="n">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="AM29" s="16" t="n">
-        <v>393</v>
+        <v>495</v>
       </c>
       <c r="AN29" s="16" t="n">
-        <v>495</v>
+        <v>364</v>
       </c>
       <c r="AO29" s="16" t="n">
-        <v>364</v>
+        <v>237</v>
       </c>
       <c r="AP29" s="16" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ29" s="16" t="n">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="AR29" s="16" t="n">
-        <v>193</v>
+        <v>534</v>
       </c>
       <c r="AS29" s="16" t="n">
-        <v>534</v>
+        <v>291</v>
       </c>
       <c r="AT29" s="16" t="n">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="AU29" s="16" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AV29" s="16" t="n">
+        <v>287</v>
+      </c>
+      <c r="AW29" s="16" t="n">
         <v>339</v>
       </c>
-      <c r="AW29" s="16" t="n">
-        <v>287</v>
-      </c>
       <c r="AX29" s="16" t="n">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="AY29" s="16" t="n">
-        <v>227</v>
+        <v>373</v>
       </c>
       <c r="AZ29" s="16" t="n">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="BA29" s="16" t="n">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="BB29" s="16" t="n">
-        <v>270</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,80 +5713,80 @@
       <c r="AC30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD30" s="13" t="s">
-        <v>57</v>
+      <c r="AD30" s="13" t="n">
+        <v>67</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="AF30" s="13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG30" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="AH30" s="13" t="n">
+        <v>141</v>
+      </c>
+      <c r="AI30" s="13" t="n">
+        <v>215</v>
+      </c>
+      <c r="AJ30" s="13" t="n">
         <v>133</v>
       </c>
-      <c r="AG30" s="13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AH30" s="13" t="n">
-        <v>105</v>
-      </c>
-      <c r="AI30" s="13" t="n">
-        <v>141</v>
-      </c>
-      <c r="AJ30" s="13" t="n">
-        <v>215</v>
-      </c>
       <c r="AK30" s="13" t="n">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>304</v>
+        <v>193</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>112</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6086,8 +6086,8 @@
       <c r="AC33" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AD33" s="18" t="s">
-        <v>57</v>
+      <c r="AD33" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AE33" s="18" t="n">
         <v>0</v>
@@ -6467,21 +6467,21 @@
       <c r="AE36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG36" s="16" t="n">
+      <c r="AF36" s="16" t="n">
         <v>-17</v>
       </c>
-      <c r="AH36" s="16" t="s">
-        <v>57</v>
+      <c r="AG36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH36" s="16" t="n">
+        <v>-49</v>
       </c>
       <c r="AI36" s="16" t="n">
-        <v>-49</v>
-      </c>
-      <c r="AJ36" s="16" t="n">
         <v>-39</v>
       </c>
+      <c r="AJ36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AK36" s="16" t="s">
         <v>57</v>
       </c>
@@ -6506,35 +6506,35 @@
       <c r="AR36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AS36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT36" s="16" t="n">
+      <c r="AS36" s="16" t="n">
         <v>-16</v>
       </c>
-      <c r="AU36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV36" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="16" t="s">
-        <v>57</v>
+      <c r="AT36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW36" s="16" t="n">
+        <v>-10</v>
       </c>
       <c r="AX36" s="16" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AY36" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AZ36" s="16" t="n">
-        <v>0</v>
+      <c r="AZ36" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="BA36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BB36" s="16" t="s">
-        <v>57</v>
+      <c r="BB36" s="16" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,12 +6629,12 @@
       <c r="AF37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG37" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH37" s="13" t="n">
+      <c r="AG37" s="13" t="n">
         <v>-1</v>
       </c>
+      <c r="AH37" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI37" s="13" t="s">
         <v>57</v>
       </c>
@@ -6674,14 +6674,14 @@
       <c r="AU37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV37" s="13" t="s">
-        <v>57</v>
+      <c r="AV37" s="13" t="n">
+        <v>-1</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX37" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AX37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY37" s="13" t="s">
         <v>57</v>
@@ -6779,23 +6779,23 @@
       <c r="AC38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD38" s="16" t="s">
-        <v>57</v>
+      <c r="AD38" s="16" t="n">
+        <v>-19</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AI38" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AJ38" s="16" t="s">
         <v>57</v>
@@ -6821,12 +6821,12 @@
       <c r="AQ38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS38" s="16" t="n">
+      <c r="AR38" s="16" t="n">
         <v>-4</v>
       </c>
+      <c r="AS38" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AT38" s="16" t="s">
         <v>57</v>
       </c>
@@ -6842,11 +6842,11 @@
       <c r="AX38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ38" s="16" t="n">
-        <v>0</v>
+      <c r="AY38" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="BA38" s="16" t="s">
         <v>57</v>
@@ -6950,68 +6950,68 @@
       <c r="AG39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI39" s="13" t="n">
+      <c r="AH39" s="13" t="n">
         <v>-4</v>
       </c>
+      <c r="AI39" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ39" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AK39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM39" s="13" t="n">
+      <c r="AL39" s="13" t="n">
         <v>-2</v>
       </c>
+      <c r="AM39" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AN39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP39" s="13" t="n">
+      <c r="AO39" s="13" t="n">
         <v>-4</v>
       </c>
+      <c r="AP39" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ39" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AR39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS39" s="13" t="s">
-        <v>57</v>
+      <c r="AS39" s="13" t="n">
+        <v>-4</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="AU39" s="13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AV39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="AV39" s="13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AW39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BB39" s="13" t="s">
-        <v>57</v>
+      <c r="BA39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB39" s="13" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,80 +7095,80 @@
       <c r="AC40" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AD40" s="18" t="s">
-        <v>57</v>
+      <c r="AD40" s="18" t="n">
+        <v>-19</v>
       </c>
       <c r="AE40" s="18" t="n">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="AF40" s="18" t="n">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="AG40" s="18" t="n">
-        <v>-18</v>
+        <v>-11</v>
       </c>
       <c r="AH40" s="18" t="n">
-        <v>-11</v>
+        <v>-53</v>
       </c>
       <c r="AI40" s="18" t="n">
-        <v>-53</v>
+        <v>-39</v>
       </c>
       <c r="AJ40" s="18" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AL40" s="18" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM40" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AP40" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AS40" s="18" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AT40" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AU40" s="18" t="n">
         <v>-2</v>
       </c>
-      <c r="AN40" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AQ40" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AT40" s="18" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AU40" s="18" t="n">
+      <c r="AV40" s="18" t="n">
         <v>-1</v>
       </c>
-      <c r="AV40" s="18" t="n">
-        <v>-2</v>
-      </c>
       <c r="AW40" s="18" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AX40" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="18" t="n">
         <v>-1</v>
       </c>
-      <c r="AX40" s="18" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AY40" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="BA40" s="18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="18" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7253,79 +7253,79 @@
         <v>0</v>
       </c>
       <c r="AD41" s="20" t="n">
-        <v>0</v>
+        <v>1673</v>
       </c>
       <c r="AE41" s="20" t="n">
-        <v>1673</v>
+        <v>1875</v>
       </c>
       <c r="AF41" s="20" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AG41" s="20" t="n">
         <v>1875</v>
       </c>
-      <c r="AG41" s="20" t="n">
-        <v>2001</v>
-      </c>
       <c r="AH41" s="20" t="n">
-        <v>1875</v>
+        <v>2233</v>
       </c>
       <c r="AI41" s="20" t="n">
-        <v>2233</v>
+        <v>2407</v>
       </c>
       <c r="AJ41" s="20" t="n">
-        <v>2407</v>
+        <v>1812</v>
       </c>
       <c r="AK41" s="20" t="n">
-        <v>1812</v>
+        <v>2509</v>
       </c>
       <c r="AL41" s="20" t="n">
-        <v>2509</v>
+        <v>2767</v>
       </c>
       <c r="AM41" s="20" t="n">
-        <v>2767</v>
+        <v>2759</v>
       </c>
       <c r="AN41" s="20" t="n">
-        <v>2759</v>
+        <v>2705</v>
       </c>
       <c r="AO41" s="20" t="n">
-        <v>2705</v>
+        <v>2370</v>
       </c>
       <c r="AP41" s="20" t="n">
-        <v>2370</v>
+        <v>1856</v>
       </c>
       <c r="AQ41" s="20" t="n">
-        <v>1856</v>
+        <v>2961</v>
       </c>
       <c r="AR41" s="20" t="n">
-        <v>2961</v>
+        <v>2995</v>
       </c>
       <c r="AS41" s="20" t="n">
-        <v>2995</v>
+        <v>2581</v>
       </c>
       <c r="AT41" s="20" t="n">
-        <v>2581</v>
+        <v>2162</v>
       </c>
       <c r="AU41" s="20" t="n">
-        <v>2162</v>
+        <v>2622</v>
       </c>
       <c r="AV41" s="20" t="n">
-        <v>2622</v>
+        <v>2718</v>
       </c>
       <c r="AW41" s="20" t="n">
-        <v>2718</v>
+        <v>2693</v>
       </c>
       <c r="AX41" s="20" t="n">
-        <v>2693</v>
+        <v>2491</v>
       </c>
       <c r="AY41" s="20" t="n">
-        <v>2491</v>
+        <v>2304</v>
       </c>
       <c r="AZ41" s="20" t="n">
-        <v>2304</v>
+        <v>2437</v>
       </c>
       <c r="BA41" s="20" t="n">
-        <v>2437</v>
+        <v>2228</v>
       </c>
       <c r="BB41" s="20" t="n">
-        <v>2228</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7878,47 +7878,47 @@
       <c r="AN48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP48" s="13" t="n">
+      <c r="AO48" s="13" t="n">
         <v>543</v>
       </c>
-      <c r="AQ48" s="13" t="s">
-        <v>57</v>
+      <c r="AP48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ48" s="13" t="n">
+        <v>732</v>
       </c>
       <c r="AR48" s="13" t="n">
-        <v>732</v>
+        <v>1363</v>
       </c>
       <c r="AS48" s="13" t="n">
-        <v>1363</v>
+        <v>1719</v>
       </c>
       <c r="AT48" s="13" t="n">
-        <v>1719</v>
+        <v>953</v>
       </c>
       <c r="AU48" s="13" t="n">
-        <v>953</v>
+        <v>23418</v>
       </c>
       <c r="AV48" s="13" t="n">
-        <v>23418</v>
+        <v>106660</v>
       </c>
       <c r="AW48" s="13" t="n">
-        <v>106660</v>
+        <v>153420</v>
       </c>
       <c r="AX48" s="13" t="n">
-        <v>153420</v>
+        <v>53662</v>
       </c>
       <c r="AY48" s="13" t="n">
-        <v>53662</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="13" t="n">
-        <v>0</v>
+        <v>8735</v>
       </c>
       <c r="BA48" s="13" t="n">
-        <v>8735</v>
+        <v>136662</v>
       </c>
       <c r="BB48" s="13" t="n">
-        <v>136662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,80 +8004,80 @@
       <c r="AC49" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD49" s="16" t="s">
-        <v>57</v>
+      <c r="AD49" s="16" t="n">
+        <v>736688</v>
       </c>
       <c r="AE49" s="16" t="n">
-        <v>736688</v>
+        <v>738597</v>
       </c>
       <c r="AF49" s="16" t="n">
-        <v>738597</v>
+        <v>692457</v>
       </c>
       <c r="AG49" s="16" t="n">
-        <v>692457</v>
+        <v>655805</v>
       </c>
       <c r="AH49" s="16" t="n">
-        <v>655805</v>
+        <v>863957</v>
       </c>
       <c r="AI49" s="16" t="n">
-        <v>863957</v>
+        <v>797093</v>
       </c>
       <c r="AJ49" s="16" t="n">
-        <v>797093</v>
+        <v>721306</v>
       </c>
       <c r="AK49" s="16" t="n">
-        <v>721306</v>
+        <v>857805</v>
       </c>
       <c r="AL49" s="16" t="n">
-        <v>857805</v>
+        <v>1070846</v>
       </c>
       <c r="AM49" s="16" t="n">
-        <v>1070846</v>
+        <v>946960</v>
       </c>
       <c r="AN49" s="16" t="n">
-        <v>946960</v>
+        <v>1050579</v>
       </c>
       <c r="AO49" s="16" t="n">
-        <v>1050579</v>
+        <v>952095</v>
       </c>
       <c r="AP49" s="16" t="n">
-        <v>952095</v>
+        <v>651392</v>
       </c>
       <c r="AQ49" s="16" t="n">
-        <v>651392</v>
+        <v>1158632</v>
       </c>
       <c r="AR49" s="16" t="n">
-        <v>1158632</v>
+        <v>1215575</v>
       </c>
       <c r="AS49" s="16" t="n">
-        <v>1215575</v>
+        <v>1246293</v>
       </c>
       <c r="AT49" s="16" t="n">
-        <v>1246293</v>
+        <v>840217</v>
       </c>
       <c r="AU49" s="16" t="n">
-        <v>840217</v>
+        <v>1376641</v>
       </c>
       <c r="AV49" s="16" t="n">
-        <v>1376641</v>
+        <v>1322155</v>
       </c>
       <c r="AW49" s="16" t="n">
-        <v>1322155</v>
+        <v>1181695</v>
       </c>
       <c r="AX49" s="16" t="n">
-        <v>1181695</v>
+        <v>1349508</v>
       </c>
       <c r="AY49" s="16" t="n">
-        <v>1349508</v>
+        <v>1077789</v>
       </c>
       <c r="AZ49" s="16" t="n">
-        <v>1077789</v>
+        <v>1125773</v>
       </c>
       <c r="BA49" s="16" t="n">
-        <v>1125773</v>
+        <v>1028215</v>
       </c>
       <c r="BB49" s="16" t="n">
-        <v>1028215</v>
+        <v>1102022</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8163,80 +8163,80 @@
       <c r="AC50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD50" s="13" t="s">
-        <v>57</v>
+      <c r="AD50" s="13" t="n">
+        <v>129795</v>
       </c>
       <c r="AE50" s="13" t="n">
-        <v>129795</v>
+        <v>223254</v>
       </c>
       <c r="AF50" s="13" t="n">
-        <v>223254</v>
+        <v>262005</v>
       </c>
       <c r="AG50" s="13" t="n">
-        <v>262005</v>
+        <v>177138</v>
       </c>
       <c r="AH50" s="13" t="n">
-        <v>177138</v>
+        <v>160027</v>
       </c>
       <c r="AI50" s="13" t="n">
-        <v>160027</v>
+        <v>151050</v>
       </c>
       <c r="AJ50" s="13" t="n">
-        <v>151050</v>
+        <v>139315</v>
       </c>
       <c r="AK50" s="13" t="n">
-        <v>139315</v>
+        <v>192822</v>
       </c>
       <c r="AL50" s="13" t="n">
-        <v>192822</v>
+        <v>162684</v>
       </c>
       <c r="AM50" s="13" t="n">
-        <v>162684</v>
+        <v>393042</v>
       </c>
       <c r="AN50" s="13" t="n">
-        <v>393042</v>
+        <v>274605</v>
       </c>
       <c r="AO50" s="13" t="n">
-        <v>274605</v>
+        <v>207194</v>
       </c>
       <c r="AP50" s="13" t="n">
-        <v>207194</v>
+        <v>196161</v>
       </c>
       <c r="AQ50" s="13" t="n">
-        <v>196161</v>
+        <v>237024</v>
       </c>
       <c r="AR50" s="13" t="n">
-        <v>237024</v>
+        <v>246749</v>
       </c>
       <c r="AS50" s="13" t="n">
-        <v>246749</v>
+        <v>186074</v>
       </c>
       <c r="AT50" s="13" t="n">
-        <v>186074</v>
+        <v>327156</v>
       </c>
       <c r="AU50" s="13" t="n">
-        <v>327156</v>
+        <v>438184</v>
       </c>
       <c r="AV50" s="13" t="n">
-        <v>438184</v>
+        <v>239781</v>
       </c>
       <c r="AW50" s="13" t="n">
-        <v>239781</v>
+        <v>300545</v>
       </c>
       <c r="AX50" s="13" t="n">
-        <v>300545</v>
+        <v>275585</v>
       </c>
       <c r="AY50" s="13" t="n">
-        <v>275585</v>
+        <v>251437</v>
       </c>
       <c r="AZ50" s="13" t="n">
-        <v>251437</v>
+        <v>359879</v>
       </c>
       <c r="BA50" s="13" t="n">
-        <v>359879</v>
+        <v>394134</v>
       </c>
       <c r="BB50" s="13" t="n">
-        <v>394134</v>
+        <v>218958</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8322,80 +8322,80 @@
       <c r="AC51" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD51" s="16" t="s">
-        <v>57</v>
+      <c r="AD51" s="16" t="n">
+        <v>72515</v>
       </c>
       <c r="AE51" s="16" t="n">
-        <v>72515</v>
+        <v>104015</v>
       </c>
       <c r="AF51" s="16" t="n">
-        <v>104015</v>
+        <v>168122</v>
       </c>
       <c r="AG51" s="16" t="n">
-        <v>168122</v>
+        <v>172882</v>
       </c>
       <c r="AH51" s="16" t="n">
-        <v>172882</v>
+        <v>139314</v>
       </c>
       <c r="AI51" s="16" t="n">
-        <v>139314</v>
+        <v>304424</v>
       </c>
       <c r="AJ51" s="16" t="n">
-        <v>304424</v>
+        <v>105707</v>
       </c>
       <c r="AK51" s="16" t="n">
-        <v>105707</v>
+        <v>230849</v>
       </c>
       <c r="AL51" s="16" t="n">
-        <v>230849</v>
+        <v>236408</v>
       </c>
       <c r="AM51" s="16" t="n">
-        <v>236408</v>
+        <v>311207</v>
       </c>
       <c r="AN51" s="16" t="n">
-        <v>311207</v>
+        <v>230217</v>
       </c>
       <c r="AO51" s="16" t="n">
-        <v>230217</v>
+        <v>237837</v>
       </c>
       <c r="AP51" s="16" t="n">
-        <v>237837</v>
+        <v>166812</v>
       </c>
       <c r="AQ51" s="16" t="n">
-        <v>166812</v>
+        <v>129350</v>
       </c>
       <c r="AR51" s="16" t="n">
-        <v>129350</v>
+        <v>381616</v>
       </c>
       <c r="AS51" s="16" t="n">
-        <v>381616</v>
+        <v>208671</v>
       </c>
       <c r="AT51" s="16" t="n">
-        <v>208671</v>
+        <v>246905</v>
       </c>
       <c r="AU51" s="16" t="n">
-        <v>246905</v>
+        <v>249497</v>
       </c>
       <c r="AV51" s="16" t="n">
-        <v>249497</v>
+        <v>212591</v>
       </c>
       <c r="AW51" s="16" t="n">
-        <v>212591</v>
+        <v>260553</v>
       </c>
       <c r="AX51" s="16" t="n">
-        <v>260553</v>
+        <v>184864</v>
       </c>
       <c r="AY51" s="16" t="n">
-        <v>184864</v>
+        <v>327008</v>
       </c>
       <c r="AZ51" s="16" t="n">
-        <v>327008</v>
+        <v>322541</v>
       </c>
       <c r="BA51" s="16" t="n">
-        <v>322541</v>
+        <v>234614</v>
       </c>
       <c r="BB51" s="16" t="n">
-        <v>234614</v>
+        <v>130007</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,80 +8481,80 @@
       <c r="AC52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD52" s="13" t="s">
-        <v>57</v>
+      <c r="AD52" s="13" t="n">
+        <v>31449</v>
       </c>
       <c r="AE52" s="13" t="n">
-        <v>31449</v>
+        <v>63430</v>
       </c>
       <c r="AF52" s="13" t="n">
-        <v>63430</v>
+        <v>48907</v>
       </c>
       <c r="AG52" s="13" t="n">
-        <v>48907</v>
+        <v>48217</v>
       </c>
       <c r="AH52" s="13" t="n">
-        <v>48217</v>
+        <v>66774</v>
       </c>
       <c r="AI52" s="13" t="n">
-        <v>66774</v>
+        <v>103732</v>
       </c>
       <c r="AJ52" s="13" t="n">
-        <v>103732</v>
+        <v>63874</v>
       </c>
       <c r="AK52" s="13" t="n">
-        <v>63874</v>
+        <v>126152</v>
       </c>
       <c r="AL52" s="13" t="n">
-        <v>126152</v>
+        <v>108545</v>
       </c>
       <c r="AM52" s="13" t="n">
-        <v>108545</v>
+        <v>60838</v>
       </c>
       <c r="AN52" s="13" t="n">
-        <v>60838</v>
+        <v>64510</v>
       </c>
       <c r="AO52" s="13" t="n">
-        <v>64510</v>
+        <v>69371</v>
       </c>
       <c r="AP52" s="13" t="n">
-        <v>69371</v>
+        <v>89761</v>
       </c>
       <c r="AQ52" s="13" t="n">
-        <v>89761</v>
+        <v>147625</v>
       </c>
       <c r="AR52" s="13" t="n">
-        <v>147625</v>
+        <v>98329</v>
       </c>
       <c r="AS52" s="13" t="n">
-        <v>98329</v>
+        <v>107721</v>
       </c>
       <c r="AT52" s="13" t="n">
-        <v>107721</v>
+        <v>125885</v>
       </c>
       <c r="AU52" s="13" t="n">
-        <v>125885</v>
+        <v>117834</v>
       </c>
       <c r="AV52" s="13" t="n">
-        <v>117834</v>
+        <v>93364</v>
       </c>
       <c r="AW52" s="13" t="n">
-        <v>93364</v>
+        <v>143701</v>
       </c>
       <c r="AX52" s="13" t="n">
-        <v>143701</v>
+        <v>157227</v>
       </c>
       <c r="AY52" s="13" t="n">
-        <v>157227</v>
+        <v>130552</v>
       </c>
       <c r="AZ52" s="13" t="n">
-        <v>130552</v>
+        <v>131277</v>
       </c>
       <c r="BA52" s="13" t="n">
-        <v>131277</v>
+        <v>106707</v>
       </c>
       <c r="BB52" s="13" t="n">
-        <v>106707</v>
+        <v>130196</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8730,17 +8730,17 @@
       <c r="AN54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP54" s="13" t="n">
+      <c r="AO54" s="13" t="n">
         <v>1017257</v>
       </c>
+      <c r="AP54" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR54" s="13" t="s">
-        <v>57</v>
+      <c r="AR54" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS54" s="13" t="n">
         <v>0</v>
@@ -8760,17 +8760,17 @@
       <c r="AX54" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY54" s="13" t="n">
-        <v>0</v>
+      <c r="AY54" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BA54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB54" s="13" t="n">
-        <v>0</v>
+      <c r="BA54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8856,8 +8856,8 @@
       <c r="AC55" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AD55" s="18" t="s">
-        <v>57</v>
+      <c r="AD55" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="AE55" s="21" t="n">
         <v>0</v>
@@ -8890,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="AO55" s="21" t="n">
-        <v>0</v>
+        <v>1017257</v>
       </c>
       <c r="AP55" s="21" t="n">
-        <v>1017257</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="21" t="n">
         <v>0</v>
@@ -9138,14 +9138,14 @@
       <c r="AY57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ57" s="13" t="s">
-        <v>57</v>
+      <c r="AZ57" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA57" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB57" s="13" t="n">
-        <v>0</v>
+      <c r="BB57" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9237,20 +9237,20 @@
       <c r="AE58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF58" s="16" t="s">
-        <v>57</v>
+      <c r="AF58" s="16" t="n">
+        <v>-10941</v>
       </c>
       <c r="AG58" s="16" t="n">
-        <v>-10941</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="16" t="n">
-        <v>0</v>
+        <v>-29518</v>
       </c>
       <c r="AI58" s="16" t="n">
-        <v>-29518</v>
+        <v>-24238</v>
       </c>
       <c r="AJ58" s="16" t="n">
-        <v>-24238</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="16" t="n">
         <v>0</v>
@@ -9267,20 +9267,20 @@
       <c r="AO58" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP58" s="16" t="n">
-        <v>0</v>
+      <c r="AP58" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR58" s="16" t="s">
-        <v>57</v>
+      <c r="AR58" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS58" s="16" t="n">
-        <v>0</v>
+        <v>-10666</v>
       </c>
       <c r="AT58" s="16" t="n">
-        <v>-10666</v>
+        <v>0</v>
       </c>
       <c r="AU58" s="16" t="n">
         <v>0</v>
@@ -9289,10 +9289,10 @@
         <v>0</v>
       </c>
       <c r="AW58" s="16" t="n">
-        <v>0</v>
+        <v>-1350</v>
       </c>
       <c r="AX58" s="16" t="n">
-        <v>-1350</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="16" t="n">
         <v>0</v>
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="BB58" s="16" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9399,11 +9399,11 @@
       <c r="AF59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG59" s="13" t="s">
-        <v>57</v>
+      <c r="AG59" s="13" t="n">
+        <v>-177</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>-177</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="13" t="n">
         <v>0</v>
@@ -9426,8 +9426,8 @@
       <c r="AO59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP59" s="13" t="n">
-        <v>0</v>
+      <c r="AP59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ59" s="13" t="s">
         <v>57</v>
@@ -9438,17 +9438,17 @@
       <c r="AS59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT59" s="13" t="s">
-        <v>57</v>
+      <c r="AT59" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AU59" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AV59" s="13" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AW59" s="13" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="13" t="n">
         <v>0</v>
@@ -9462,8 +9462,8 @@
       <c r="BA59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB59" s="13" t="n">
-        <v>0</v>
+      <c r="BB59" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9549,20 +9549,20 @@
       <c r="AC60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD60" s="16" t="s">
-        <v>57</v>
+      <c r="AD60" s="16" t="n">
+        <v>-8492</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>-8492</v>
+        <v>-2601</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>-2601</v>
+        <v>-91</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>-91</v>
+        <v>-5950</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>-5950</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="16" t="n">
         <v>0</v>
@@ -9592,10 +9592,10 @@
         <v>0</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>0</v>
+        <v>-2190</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>-2190</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="16" t="n">
         <v>0</v>
@@ -9621,8 +9621,8 @@
       <c r="BA60" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB60" s="16" t="n">
-        <v>0</v>
+      <c r="BB60" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9717,14 +9717,14 @@
       <c r="AF61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG61" s="13" t="s">
-        <v>57</v>
+      <c r="AG61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>0</v>
+        <v>-2019</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>-2019</v>
+        <v>0</v>
       </c>
       <c r="AJ61" s="13" t="n">
         <v>0</v>
@@ -9733,37 +9733,37 @@
         <v>0</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>0</v>
+        <v>-1032</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>-1032</v>
+        <v>0</v>
       </c>
       <c r="AN61" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP61" s="13" t="n">
         <v>-2104</v>
       </c>
+      <c r="AP61" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ61" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AR61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS61" s="13" t="s">
-        <v>57</v>
+      <c r="AS61" s="13" t="n">
+        <v>-2515</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>-2515</v>
+        <v>-391</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>-391</v>
+        <v>-1076</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>-1076</v>
+        <v>0</v>
       </c>
       <c r="AW61" s="13" t="n">
         <v>0</v>
@@ -9775,13 +9775,13 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>0</v>
+        <v>-226</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>-226</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>0</v>
+        <v>-2692</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9867,80 +9867,80 @@
       <c r="AC62" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AD62" s="18" t="s">
-        <v>57</v>
+      <c r="AD62" s="21" t="n">
+        <v>-8492</v>
       </c>
       <c r="AE62" s="21" t="n">
-        <v>-8492</v>
+        <v>-2601</v>
       </c>
       <c r="AF62" s="21" t="n">
-        <v>-2601</v>
+        <v>-11032</v>
       </c>
       <c r="AG62" s="21" t="n">
-        <v>-11032</v>
+        <v>-6127</v>
       </c>
       <c r="AH62" s="21" t="n">
-        <v>-6127</v>
+        <v>-31537</v>
       </c>
       <c r="AI62" s="21" t="n">
-        <v>-31537</v>
+        <v>-24238</v>
       </c>
       <c r="AJ62" s="21" t="n">
-        <v>-24238</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AL62" s="21" t="n">
-        <v>0</v>
+        <v>-1032</v>
       </c>
       <c r="AM62" s="21" t="n">
-        <v>-1032</v>
+        <v>0</v>
       </c>
       <c r="AN62" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AO62" s="21" t="n">
-        <v>0</v>
+        <v>-2104</v>
       </c>
       <c r="AP62" s="21" t="n">
-        <v>-2104</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AR62" s="21" t="n">
-        <v>0</v>
+        <v>-2190</v>
       </c>
       <c r="AS62" s="21" t="n">
-        <v>-2190</v>
+        <v>-13181</v>
       </c>
       <c r="AT62" s="21" t="n">
-        <v>-13181</v>
+        <v>-391</v>
       </c>
       <c r="AU62" s="21" t="n">
-        <v>-391</v>
+        <v>-1076</v>
       </c>
       <c r="AV62" s="21" t="n">
-        <v>-1076</v>
+        <v>-20</v>
       </c>
       <c r="AW62" s="21" t="n">
-        <v>-20</v>
+        <v>-1350</v>
       </c>
       <c r="AX62" s="21" t="n">
-        <v>-1350</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AZ62" s="21" t="n">
-        <v>0</v>
+        <v>-226</v>
       </c>
       <c r="BA62" s="21" t="n">
-        <v>-226</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="21" t="n">
-        <v>0</v>
+        <v>-2715</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10083,80 +10083,80 @@
       <c r="AC64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD64" s="13" t="s">
-        <v>57</v>
+      <c r="AD64" s="13" t="n">
+        <v>-1667</v>
       </c>
       <c r="AE64" s="13" t="n">
-        <v>-1667</v>
+        <v>-2094</v>
       </c>
       <c r="AF64" s="13" t="n">
-        <v>-2094</v>
+        <v>-4779</v>
       </c>
       <c r="AG64" s="13" t="n">
-        <v>-4779</v>
+        <v>-5947</v>
       </c>
       <c r="AH64" s="13" t="n">
-        <v>-5947</v>
+        <v>-27148</v>
       </c>
       <c r="AI64" s="13" t="n">
-        <v>-27148</v>
+        <v>-54419</v>
       </c>
       <c r="AJ64" s="13" t="n">
-        <v>-54419</v>
+        <v>-45778</v>
       </c>
       <c r="AK64" s="13" t="n">
-        <v>-45778</v>
+        <v>-10506</v>
       </c>
       <c r="AL64" s="13" t="n">
-        <v>-10506</v>
+        <v>-27326</v>
       </c>
       <c r="AM64" s="13" t="n">
-        <v>-27326</v>
+        <v>-66610</v>
       </c>
       <c r="AN64" s="13" t="n">
-        <v>-66610</v>
+        <v>-107832</v>
       </c>
       <c r="AO64" s="13" t="n">
-        <v>-107832</v>
+        <v>-92389</v>
       </c>
       <c r="AP64" s="13" t="n">
-        <v>-92389</v>
+        <v>-66891</v>
       </c>
       <c r="AQ64" s="13" t="n">
-        <v>-66891</v>
+        <v>-40112</v>
       </c>
       <c r="AR64" s="13" t="n">
-        <v>-40112</v>
+        <v>-8036</v>
       </c>
       <c r="AS64" s="13" t="n">
-        <v>-8036</v>
+        <v>-8348</v>
       </c>
       <c r="AT64" s="13" t="n">
-        <v>-8348</v>
+        <v>-32421</v>
       </c>
       <c r="AU64" s="13" t="n">
-        <v>-32421</v>
+        <v>-50536</v>
       </c>
       <c r="AV64" s="13" t="n">
-        <v>-50536</v>
+        <v>-29093</v>
       </c>
       <c r="AW64" s="13" t="n">
-        <v>-29093</v>
+        <v>-21147</v>
       </c>
       <c r="AX64" s="13" t="n">
-        <v>-21147</v>
+        <v>-9379</v>
       </c>
       <c r="AY64" s="13" t="n">
-        <v>-9379</v>
+        <v>-21304</v>
       </c>
       <c r="AZ64" s="13" t="n">
-        <v>-21304</v>
+        <v>-21177</v>
       </c>
       <c r="BA64" s="13" t="n">
-        <v>-21177</v>
+        <v>-5699</v>
       </c>
       <c r="BB64" s="13" t="n">
-        <v>-5699</v>
+        <v>-4315</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10241,79 +10241,79 @@
         <v>0</v>
       </c>
       <c r="AD65" s="21" t="n">
-        <v>0</v>
+        <v>960288</v>
       </c>
       <c r="AE65" s="21" t="n">
-        <v>960288</v>
+        <v>1124601</v>
       </c>
       <c r="AF65" s="21" t="n">
-        <v>1124601</v>
+        <v>1155680</v>
       </c>
       <c r="AG65" s="21" t="n">
-        <v>1155680</v>
+        <v>1041968</v>
       </c>
       <c r="AH65" s="21" t="n">
-        <v>1041968</v>
+        <v>1171387</v>
       </c>
       <c r="AI65" s="21" t="n">
-        <v>1171387</v>
+        <v>1277642</v>
       </c>
       <c r="AJ65" s="21" t="n">
-        <v>1277642</v>
+        <v>984424</v>
       </c>
       <c r="AK65" s="21" t="n">
-        <v>984424</v>
+        <v>1397122</v>
       </c>
       <c r="AL65" s="21" t="n">
-        <v>1397122</v>
+        <v>1550125</v>
       </c>
       <c r="AM65" s="21" t="n">
-        <v>1550125</v>
+        <v>1645437</v>
       </c>
       <c r="AN65" s="21" t="n">
-        <v>1645437</v>
+        <v>1512079</v>
       </c>
       <c r="AO65" s="21" t="n">
-        <v>1512079</v>
+        <v>2389804</v>
       </c>
       <c r="AP65" s="21" t="n">
-        <v>2389804</v>
+        <v>1037235</v>
       </c>
       <c r="AQ65" s="21" t="n">
-        <v>1037235</v>
+        <v>1633251</v>
       </c>
       <c r="AR65" s="21" t="n">
-        <v>1633251</v>
+        <v>1933406</v>
       </c>
       <c r="AS65" s="21" t="n">
-        <v>1933406</v>
+        <v>1728949</v>
       </c>
       <c r="AT65" s="21" t="n">
-        <v>1728949</v>
+        <v>1508304</v>
       </c>
       <c r="AU65" s="21" t="n">
-        <v>1508304</v>
+        <v>2153962</v>
       </c>
       <c r="AV65" s="21" t="n">
-        <v>2153962</v>
+        <v>1945438</v>
       </c>
       <c r="AW65" s="21" t="n">
-        <v>1945438</v>
+        <v>2017417</v>
       </c>
       <c r="AX65" s="21" t="n">
-        <v>2017417</v>
+        <v>2011467</v>
       </c>
       <c r="AY65" s="21" t="n">
-        <v>2011467</v>
+        <v>1765482</v>
       </c>
       <c r="AZ65" s="21" t="n">
-        <v>1765482</v>
+        <v>1926802</v>
       </c>
       <c r="BA65" s="21" t="n">
-        <v>1926802</v>
+        <v>1894633</v>
       </c>
       <c r="BB65" s="21" t="n">
-        <v>1894633</v>
+        <v>1574153</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10866,47 +10866,47 @@
       <c r="AN72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO72" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP72" s="13" t="n">
+      <c r="AO72" s="13" t="n">
         <v>543000000</v>
       </c>
-      <c r="AQ72" s="13" t="s">
-        <v>57</v>
+      <c r="AP72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ72" s="13" t="n">
+        <v>732000000</v>
       </c>
       <c r="AR72" s="13" t="n">
-        <v>732000000</v>
+        <v>454333333</v>
       </c>
       <c r="AS72" s="13" t="n">
-        <v>454333333</v>
+        <v>859500000</v>
       </c>
       <c r="AT72" s="13" t="n">
-        <v>859500000</v>
+        <v>953000000</v>
       </c>
       <c r="AU72" s="13" t="n">
-        <v>953000000</v>
+        <v>755419355</v>
       </c>
       <c r="AV72" s="13" t="n">
-        <v>755419355</v>
+        <v>740694444</v>
       </c>
       <c r="AW72" s="13" t="n">
-        <v>740694444</v>
+        <v>752058824</v>
       </c>
       <c r="AX72" s="13" t="n">
-        <v>752058824</v>
-      </c>
-      <c r="AY72" s="13" t="n">
         <v>777710145</v>
       </c>
-      <c r="AZ72" s="13" t="s">
-        <v>57</v>
+      <c r="AY72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ72" s="13" t="n">
+        <v>727916667</v>
       </c>
       <c r="BA72" s="13" t="n">
-        <v>727916667</v>
-      </c>
-      <c r="BB72" s="13" t="n">
         <v>1059395349</v>
+      </c>
+      <c r="BB72" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10992,80 +10992,80 @@
       <c r="AC73" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD73" s="16" t="s">
-        <v>57</v>
+      <c r="AD73" s="16" t="n">
+        <v>577794510</v>
       </c>
       <c r="AE73" s="16" t="n">
-        <v>577794510</v>
+        <v>588523506</v>
       </c>
       <c r="AF73" s="16" t="n">
-        <v>588523506</v>
+        <v>595918244</v>
       </c>
       <c r="AG73" s="16" t="n">
-        <v>595918244</v>
+        <v>578821712</v>
       </c>
       <c r="AH73" s="16" t="n">
-        <v>578821712</v>
+        <v>535621203</v>
       </c>
       <c r="AI73" s="16" t="n">
-        <v>535621203</v>
+        <v>555465505</v>
       </c>
       <c r="AJ73" s="16" t="n">
-        <v>555465505</v>
+        <v>565730196</v>
       </c>
       <c r="AK73" s="16" t="n">
-        <v>565730196</v>
+        <v>561390707</v>
       </c>
       <c r="AL73" s="16" t="n">
-        <v>561390707</v>
+        <v>561240042</v>
       </c>
       <c r="AM73" s="16" t="n">
-        <v>561240042</v>
+        <v>564338498</v>
       </c>
       <c r="AN73" s="16" t="n">
-        <v>564338498</v>
+        <v>566349865</v>
       </c>
       <c r="AO73" s="16" t="n">
-        <v>566349865</v>
+        <v>551619351</v>
       </c>
       <c r="AP73" s="16" t="n">
-        <v>551619351</v>
+        <v>550162162</v>
       </c>
       <c r="AQ73" s="16" t="n">
-        <v>550162162</v>
+        <v>539149372</v>
       </c>
       <c r="AR73" s="16" t="n">
-        <v>539149372</v>
+        <v>622095701</v>
       </c>
       <c r="AS73" s="16" t="n">
-        <v>622095701</v>
+        <v>667180407</v>
       </c>
       <c r="AT73" s="16" t="n">
-        <v>667180407</v>
+        <v>660547956</v>
       </c>
       <c r="AU73" s="16" t="n">
-        <v>660547956</v>
+        <v>877959821</v>
       </c>
       <c r="AV73" s="16" t="n">
-        <v>877959821</v>
+        <v>708930295</v>
       </c>
       <c r="AW73" s="16" t="n">
-        <v>708930295</v>
+        <v>709726727</v>
       </c>
       <c r="AX73" s="16" t="n">
-        <v>709726727</v>
+        <v>804235995</v>
       </c>
       <c r="AY73" s="16" t="n">
-        <v>804235995</v>
+        <v>728235811</v>
       </c>
       <c r="AZ73" s="16" t="n">
-        <v>728235811</v>
+        <v>726774048</v>
       </c>
       <c r="BA73" s="16" t="n">
-        <v>726774048</v>
+        <v>760514053</v>
       </c>
       <c r="BB73" s="16" t="n">
-        <v>760514053</v>
+        <v>822404478</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11151,80 +11151,80 @@
       <c r="AC74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD74" s="13" t="s">
-        <v>57</v>
+      <c r="AD74" s="13" t="n">
+        <v>589977273</v>
       </c>
       <c r="AE74" s="13" t="n">
-        <v>589977273</v>
+        <v>751696970</v>
       </c>
       <c r="AF74" s="13" t="n">
-        <v>751696970</v>
+        <v>634394673</v>
       </c>
       <c r="AG74" s="13" t="n">
-        <v>634394673</v>
+        <v>582690789</v>
       </c>
       <c r="AH74" s="13" t="n">
-        <v>582690789</v>
+        <v>603875472</v>
       </c>
       <c r="AI74" s="13" t="n">
-        <v>603875472</v>
+        <v>614024390</v>
       </c>
       <c r="AJ74" s="13" t="n">
-        <v>614024390</v>
+        <v>654061033</v>
       </c>
       <c r="AK74" s="13" t="n">
-        <v>654061033</v>
+        <v>628084691</v>
       </c>
       <c r="AL74" s="13" t="n">
-        <v>628084691</v>
+        <v>664016327</v>
       </c>
       <c r="AM74" s="13" t="n">
-        <v>664016327</v>
+        <v>854439130</v>
       </c>
       <c r="AN74" s="13" t="n">
-        <v>854439130</v>
+        <v>780127841</v>
       </c>
       <c r="AO74" s="13" t="n">
-        <v>780127841</v>
+        <v>756182482</v>
       </c>
       <c r="AP74" s="13" t="n">
-        <v>756182482</v>
+        <v>778416667</v>
       </c>
       <c r="AQ74" s="13" t="n">
-        <v>778416667</v>
+        <v>754853503</v>
       </c>
       <c r="AR74" s="13" t="n">
-        <v>754853503</v>
+        <v>783330159</v>
       </c>
       <c r="AS74" s="13" t="n">
-        <v>783330159</v>
+        <v>791804255</v>
       </c>
       <c r="AT74" s="13" t="n">
-        <v>791804255</v>
+        <v>838861538</v>
       </c>
       <c r="AU74" s="13" t="n">
-        <v>838861538</v>
+        <v>887012146</v>
       </c>
       <c r="AV74" s="13" t="n">
-        <v>887012146</v>
+        <v>878318681</v>
       </c>
       <c r="AW74" s="13" t="n">
-        <v>878318681</v>
+        <v>936277259</v>
       </c>
       <c r="AX74" s="13" t="n">
-        <v>936277259</v>
+        <v>921688963</v>
       </c>
       <c r="AY74" s="13" t="n">
-        <v>921688963</v>
+        <v>924400735</v>
       </c>
       <c r="AZ74" s="13" t="n">
-        <v>924400735</v>
+        <v>1013743662</v>
       </c>
       <c r="BA74" s="13" t="n">
-        <v>1013743662</v>
+        <v>1079819178</v>
       </c>
       <c r="BB74" s="13" t="n">
-        <v>1079819178</v>
+        <v>1062902913</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11310,80 +11310,80 @@
       <c r="AC75" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD75" s="16" t="s">
-        <v>57</v>
+      <c r="AD75" s="16" t="n">
+        <v>557807692</v>
       </c>
       <c r="AE75" s="16" t="n">
-        <v>557807692</v>
+        <v>533410256</v>
       </c>
       <c r="AF75" s="16" t="n">
-        <v>533410256</v>
+        <v>503359281</v>
       </c>
       <c r="AG75" s="16" t="n">
-        <v>503359281</v>
+        <v>502563953</v>
       </c>
       <c r="AH75" s="16" t="n">
-        <v>502563953</v>
+        <v>521775281</v>
       </c>
       <c r="AI75" s="16" t="n">
-        <v>521775281</v>
+        <v>553498182</v>
       </c>
       <c r="AJ75" s="16" t="n">
-        <v>553498182</v>
+        <v>553439791</v>
       </c>
       <c r="AK75" s="16" t="n">
-        <v>553439791</v>
+        <v>554925481</v>
       </c>
       <c r="AL75" s="16" t="n">
-        <v>554925481</v>
+        <v>601547074</v>
       </c>
       <c r="AM75" s="16" t="n">
-        <v>601547074</v>
+        <v>628701010</v>
       </c>
       <c r="AN75" s="16" t="n">
-        <v>628701010</v>
+        <v>632464286</v>
       </c>
       <c r="AO75" s="16" t="n">
-        <v>632464286</v>
+        <v>1003531646</v>
       </c>
       <c r="AP75" s="16" t="n">
-        <v>1003531646</v>
+        <v>700890756</v>
       </c>
       <c r="AQ75" s="16" t="n">
-        <v>700890756</v>
+        <v>670207254</v>
       </c>
       <c r="AR75" s="16" t="n">
-        <v>670207254</v>
+        <v>714636704</v>
       </c>
       <c r="AS75" s="16" t="n">
-        <v>714636704</v>
+        <v>717082474</v>
       </c>
       <c r="AT75" s="16" t="n">
-        <v>717082474</v>
+        <v>737029851</v>
       </c>
       <c r="AU75" s="16" t="n">
-        <v>737029851</v>
+        <v>735979351</v>
       </c>
       <c r="AV75" s="16" t="n">
-        <v>735979351</v>
+        <v>740735192</v>
       </c>
       <c r="AW75" s="16" t="n">
-        <v>740735192</v>
+        <v>768592920</v>
       </c>
       <c r="AX75" s="16" t="n">
-        <v>768592920</v>
+        <v>814378855</v>
       </c>
       <c r="AY75" s="16" t="n">
-        <v>814378855</v>
+        <v>876697051</v>
       </c>
       <c r="AZ75" s="16" t="n">
-        <v>876697051</v>
+        <v>913713881</v>
       </c>
       <c r="BA75" s="16" t="n">
-        <v>913713881</v>
+        <v>868940741</v>
       </c>
       <c r="BB75" s="16" t="n">
-        <v>868940741</v>
+        <v>902826389</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11469,80 +11469,80 @@
       <c r="AC76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD76" s="13" t="s">
-        <v>57</v>
+      <c r="AD76" s="13" t="n">
+        <v>469388060</v>
       </c>
       <c r="AE76" s="13" t="n">
-        <v>469388060</v>
+        <v>476917293</v>
       </c>
       <c r="AF76" s="13" t="n">
-        <v>476917293</v>
+        <v>444609091</v>
       </c>
       <c r="AG76" s="13" t="n">
-        <v>444609091</v>
+        <v>459209524</v>
       </c>
       <c r="AH76" s="13" t="n">
-        <v>459209524</v>
+        <v>473574468</v>
       </c>
       <c r="AI76" s="13" t="n">
-        <v>473574468</v>
+        <v>482474419</v>
       </c>
       <c r="AJ76" s="13" t="n">
-        <v>482474419</v>
+        <v>480255639</v>
       </c>
       <c r="AK76" s="13" t="n">
-        <v>480255639</v>
+        <v>488961240</v>
       </c>
       <c r="AL76" s="13" t="n">
-        <v>488961240</v>
+        <v>486748879</v>
       </c>
       <c r="AM76" s="13" t="n">
-        <v>486748879</v>
+        <v>482841270</v>
       </c>
       <c r="AN76" s="13" t="n">
-        <v>482841270</v>
+        <v>481417910</v>
       </c>
       <c r="AO76" s="13" t="n">
-        <v>481417910</v>
+        <v>510080882</v>
       </c>
       <c r="AP76" s="13" t="n">
-        <v>510080882</v>
+        <v>493192308</v>
       </c>
       <c r="AQ76" s="13" t="n">
-        <v>493192308</v>
+        <v>485608553</v>
       </c>
       <c r="AR76" s="13" t="n">
-        <v>485608553</v>
+        <v>509476684</v>
       </c>
       <c r="AS76" s="13" t="n">
-        <v>509476684</v>
+        <v>525468293</v>
       </c>
       <c r="AT76" s="13" t="n">
-        <v>525468293</v>
+        <v>762939394</v>
       </c>
       <c r="AU76" s="13" t="n">
-        <v>762939394</v>
+        <v>613718750</v>
       </c>
       <c r="AV76" s="13" t="n">
-        <v>613718750</v>
+        <v>622426667</v>
       </c>
       <c r="AW76" s="13" t="n">
-        <v>622426667</v>
+        <v>825867816</v>
       </c>
       <c r="AX76" s="13" t="n">
-        <v>825867816</v>
+        <v>721224771</v>
       </c>
       <c r="AY76" s="13" t="n">
-        <v>721224771</v>
+        <v>729340782</v>
       </c>
       <c r="AZ76" s="13" t="n">
-        <v>729340782</v>
+        <v>776786982</v>
       </c>
       <c r="BA76" s="13" t="n">
-        <v>776786982</v>
+        <v>952741071</v>
       </c>
       <c r="BB76" s="13" t="n">
-        <v>952741071</v>
+        <v>829273885</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11718,17 +11718,17 @@
       <c r="AN78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP78" s="13" t="n">
-        <v>0</v>
+      <c r="AO78" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>57</v>
+      <c r="AR78" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS78" s="13" t="n">
         <v>0</v>
@@ -11748,17 +11748,17 @@
       <c r="AX78" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY78" s="13" t="n">
-        <v>0</v>
+      <c r="AY78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BA78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB78" s="13" t="n">
-        <v>0</v>
+      <c r="BA78" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
